--- a/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000410442215831</v>
+      </c>
+      <c r="D3">
         <v>1.000255690837766</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.001305940263833</v>
+      </c>
+      <c r="F3">
+        <v>0.9990780007140622</v>
+      </c>
+      <c r="G3">
+        <v>1.000255690837766</v>
+      </c>
+      <c r="H3">
         <v>0.9984155452208341</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1.000474127820834</v>
-      </c>
-      <c r="F3">
-        <v>1.000255690837766</v>
-      </c>
-      <c r="G3">
-        <v>1.001305940263834</v>
-      </c>
-      <c r="H3">
-        <v>0.9990780007140622</v>
-      </c>
-      <c r="I3">
-        <v>1.000410442215831</v>
       </c>
       <c r="J3">
         <v>0.9984155452208341</v>
@@ -713,22 +665,22 @@
         <v>0.9993225579185768</v>
       </c>
       <c r="P3">
-        <v>0.9997151212931447</v>
+        <v>0.9997151212931445</v>
       </c>
       <c r="Q3">
-        <v>0.9997151212931447</v>
+        <v>0.9997151212931445</v>
       </c>
       <c r="R3">
-        <v>0.9998502636793</v>
+        <v>0.9998502636792999</v>
       </c>
       <c r="S3">
-        <v>0.9998502636793</v>
+        <v>0.9998502636792999</v>
       </c>
       <c r="T3">
-        <v>0.9999899578455268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999899578455267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000792808220672</v>
+      </c>
+      <c r="D4">
         <v>1.000500344128951</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.002513734075948</v>
+      </c>
+      <c r="F4">
+        <v>0.9982198620082953</v>
+      </c>
+      <c r="G4">
+        <v>1.000500344128951</v>
+      </c>
+      <c r="H4">
         <v>0.9969370858835291</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.000913165420139</v>
-      </c>
-      <c r="F4">
-        <v>1.000500344128951</v>
-      </c>
-      <c r="G4">
-        <v>1.002513734075947</v>
-      </c>
-      <c r="H4">
-        <v>0.9982198620082953</v>
-      </c>
-      <c r="I4">
-        <v>1.000792808220673</v>
       </c>
       <c r="J4">
         <v>0.9969370858835291</v>
@@ -790,7 +742,7 @@
         <v>0.9999794999562557</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.001520352252464</v>
+      </c>
+      <c r="D5">
         <v>1.000974110631096</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.004800563702739</v>
+      </c>
+      <c r="F5">
+        <v>0.9965880639546234</v>
+      </c>
+      <c r="G5">
+        <v>1.000974110631096</v>
+      </c>
+      <c r="H5">
         <v>0.9941209107157233</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.001745139869185</v>
-      </c>
-      <c r="F5">
-        <v>1.000974110631096</v>
-      </c>
-      <c r="G5">
-        <v>1.004800563702739</v>
-      </c>
-      <c r="H5">
-        <v>0.9965880639546234</v>
-      </c>
-      <c r="I5">
-        <v>1.001520352252464</v>
       </c>
       <c r="J5">
         <v>0.9941209107157233</v>
@@ -852,7 +804,7 @@
         <v>0.9999581901876385</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.002230575777028</v>
+      </c>
+      <c r="D6">
         <v>1.001439177050224</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.007029447585716</v>
+      </c>
+      <c r="F6">
+        <v>0.9949954272931013</v>
+      </c>
+      <c r="G6">
+        <v>1.001439177050224</v>
+      </c>
+      <c r="H6">
         <v>0.9913708074342681</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>1.002556244507236</v>
-      </c>
-      <c r="F6">
-        <v>1.001439177050224</v>
-      </c>
-      <c r="G6">
-        <v>1.007029447585716</v>
-      </c>
-      <c r="H6">
-        <v>0.9949954272931015</v>
-      </c>
-      <c r="I6">
-        <v>1.002230575777028</v>
       </c>
       <c r="J6">
         <v>0.9913708074342681</v>
@@ -896,7 +848,7 @@
         <v>0.9969635259707523</v>
       </c>
       <c r="O6">
-        <v>0.9963074930782021</v>
+        <v>0.996307493078202</v>
       </c>
       <c r="P6">
         <v>0.9984554096639097</v>
@@ -914,7 +866,7 @@
         <v>0.999936946607929</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000034127842055</v>
+      </c>
+      <c r="D7">
         <v>1.000049076011316</v>
       </c>
-      <c r="D7">
-        <v>0.9998579505532745</v>
-      </c>
       <c r="E7">
+        <v>1.000070584067269</v>
+      </c>
+      <c r="F7">
+        <v>0.999926758262102</v>
+      </c>
+      <c r="G7">
+        <v>1.000049076011316</v>
+      </c>
+      <c r="H7">
+        <v>0.9998579505532746</v>
+      </c>
+      <c r="I7">
         <v>1.000027978999871</v>
       </c>
-      <c r="F7">
-        <v>1.000049076011316</v>
-      </c>
-      <c r="G7">
-        <v>1.000070584067269</v>
-      </c>
-      <c r="H7">
-        <v>0.999926758262102</v>
-      </c>
-      <c r="I7">
-        <v>1.000034127842055</v>
-      </c>
       <c r="J7">
-        <v>0.9998579505532745</v>
+        <v>0.9998579505532746</v>
       </c>
       <c r="K7">
         <v>1.000049076011316</v>
@@ -976,7 +928,7 @@
         <v>0.999994412622648</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00011728200384</v>
+        <v>1.000077671213492</v>
       </c>
       <c r="D8">
+        <v>1.000117282003839</v>
+      </c>
+      <c r="E8">
+        <v>1.000153005019969</v>
+      </c>
+      <c r="F8">
+        <v>0.999833994888925</v>
+      </c>
+      <c r="G8">
+        <v>1.000117282003839</v>
+      </c>
+      <c r="H8">
         <v>0.9996746419439581</v>
       </c>
-      <c r="E8">
+      <c r="I8">
         <v>1.000061373648307</v>
-      </c>
-      <c r="F8">
-        <v>1.00011728200384</v>
-      </c>
-      <c r="G8">
-        <v>1.000153005019969</v>
-      </c>
-      <c r="H8">
-        <v>0.9998339948889249</v>
-      </c>
-      <c r="I8">
-        <v>1.000077671213493</v>
       </c>
       <c r="J8">
         <v>0.9996746419439581</v>
       </c>
       <c r="K8">
-        <v>1.00011728200384</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="L8">
         <v>1.000061373648307</v>
@@ -1035,10 +987,10 @@
         <v>0.9999926448999858</v>
       </c>
       <c r="T8">
-        <v>0.9999863281197484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999863281197482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000132161299741</v>
+      </c>
+      <c r="D9">
         <v>1.000190082741071</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.000273294282414</v>
+      </c>
+      <c r="F9">
+        <v>0.9997163685173881</v>
+      </c>
+      <c r="G9">
+        <v>1.000190082741071</v>
+      </c>
+      <c r="H9">
         <v>0.9994499010156477</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>1.000108327473006</v>
-      </c>
-      <c r="F9">
-        <v>1.000190082741071</v>
-      </c>
-      <c r="G9">
-        <v>1.000273294282414</v>
-      </c>
-      <c r="H9">
-        <v>0.9997163685173881</v>
-      </c>
-      <c r="I9">
-        <v>1.000132161299741</v>
       </c>
       <c r="J9">
         <v>0.9994499010156477</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999783558882114</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000265474564124</v>
+      </c>
+      <c r="D10">
         <v>1.00038554826722</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.00054387882897</v>
+      </c>
+      <c r="F10">
+        <v>0.9994307228710118</v>
+      </c>
+      <c r="G10">
+        <v>1.00038554826722</v>
+      </c>
+      <c r="H10">
         <v>0.99889363030713</v>
       </c>
-      <c r="E10">
-        <v>1.000216064116478</v>
-      </c>
-      <c r="F10">
-        <v>1.00038554826722</v>
-      </c>
-      <c r="G10">
-        <v>1.00054387882897</v>
-      </c>
-      <c r="H10">
-        <v>0.9994307228710118</v>
-      </c>
       <c r="I10">
-        <v>1.000265474564124</v>
+        <v>1.000216064116477</v>
       </c>
       <c r="J10">
         <v>0.99889363030713</v>
@@ -1135,22 +1087,22 @@
         <v>1.00038554826722</v>
       </c>
       <c r="L10">
-        <v>1.000216064116478</v>
+        <v>1.000216064116477</v>
       </c>
       <c r="M10">
-        <v>0.9995548472118039</v>
+        <v>0.9995548472118037</v>
       </c>
       <c r="N10">
-        <v>0.9995548472118039</v>
+        <v>0.9995548472118037</v>
       </c>
       <c r="O10">
-        <v>0.9995134724315399</v>
+        <v>0.9995134724315397</v>
       </c>
       <c r="P10">
-        <v>0.9998317475636093</v>
+        <v>0.999831747563609</v>
       </c>
       <c r="Q10">
-        <v>0.9998317475636093</v>
+        <v>0.9998317475636092</v>
       </c>
       <c r="R10">
         <v>0.9999701977395119</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999558864924888</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.00047841288687</v>
+      </c>
+      <c r="D11">
         <v>1.000689554950025</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.000987301191532</v>
+      </c>
+      <c r="F11">
+        <v>0.9989734553463477</v>
+      </c>
+      <c r="G11">
+        <v>1.000689554950025</v>
+      </c>
+      <c r="H11">
         <v>0.9980081459426831</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>1.000391527239763</v>
-      </c>
-      <c r="F11">
-        <v>1.000689554950025</v>
-      </c>
-      <c r="G11">
-        <v>1.000987301191532</v>
-      </c>
-      <c r="H11">
-        <v>0.9989734553463477</v>
-      </c>
-      <c r="I11">
-        <v>1.00047841288687</v>
       </c>
       <c r="J11">
         <v>0.9980081459426831</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999213995928701</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.000695226278909</v>
+      </c>
+      <c r="D12">
         <v>1.000282481962375</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="F12">
+        <v>0.9984197460422124</v>
+      </c>
+      <c r="G12">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="H12">
         <v>0.9973719629308196</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>1.000865077468418</v>
-      </c>
-      <c r="F12">
-        <v>1.000282481962375</v>
-      </c>
-      <c r="G12">
-        <v>1.002417857854792</v>
-      </c>
-      <c r="H12">
-        <v>0.9984197460422124</v>
-      </c>
-      <c r="I12">
-        <v>1.000695226278909</v>
       </c>
       <c r="J12">
         <v>0.9973719629308196</v>
@@ -1286,7 +1238,7 @@
         <v>1.000008725422921</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.000211121594492</v>
+      </c>
+      <c r="D13">
         <v>1.000410226801606</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.000290957719286</v>
+      </c>
+      <c r="F13">
+        <v>0.9995600236539687</v>
+      </c>
+      <c r="G13">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="H13">
         <v>0.9990817833146898</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>1.000129187227137</v>
-      </c>
-      <c r="F13">
-        <v>1.000410226801606</v>
-      </c>
-      <c r="G13">
-        <v>1.000290957719287</v>
-      </c>
-      <c r="H13">
-        <v>0.9995600236539686</v>
-      </c>
-      <c r="I13">
-        <v>1.000211121594492</v>
       </c>
       <c r="J13">
         <v>0.9990817833146898</v>
@@ -1330,7 +1282,7 @@
         <v>0.9996054852709135</v>
       </c>
       <c r="O13">
-        <v>0.9995903313985984</v>
+        <v>0.9995903313985987</v>
       </c>
       <c r="P13">
         <v>0.9998737324478112</v>
@@ -1348,7 +1300,7 @@
         <v>0.99994721671853</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.053363000455561</v>
+      </c>
+      <c r="D14">
         <v>1.04548728095121</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="F14">
+        <v>0.8816329661722334</v>
+      </c>
+      <c r="G14">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="H14">
         <v>0.7894649163113109</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>1.056604045948</v>
-      </c>
-      <c r="F14">
-        <v>1.04548728095121</v>
-      </c>
-      <c r="G14">
-        <v>1.153061593316328</v>
-      </c>
-      <c r="H14">
-        <v>0.8816329661722334</v>
-      </c>
-      <c r="I14">
-        <v>1.053363000455561</v>
       </c>
       <c r="J14">
         <v>0.7894649163113109</v>
@@ -1410,7 +1362,7 @@
         <v>0.9966023005257739</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.01472075290998</v>
+      </c>
+      <c r="D15">
         <v>1.018021394410658</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="F15">
+        <v>0.9680202245104421</v>
+      </c>
+      <c r="G15">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="H15">
         <v>0.9398945720535596</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>1.013362453267904</v>
-      </c>
-      <c r="F15">
-        <v>1.018021394410658</v>
-      </c>
-      <c r="G15">
-        <v>1.034745780519005</v>
-      </c>
-      <c r="H15">
-        <v>0.9680202245104421</v>
-      </c>
-      <c r="I15">
-        <v>1.01472075290998</v>
       </c>
       <c r="J15">
         <v>0.9398945720535596</v>
@@ -1472,7 +1424,7 @@
         <v>0.9981275296119249</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999871542416637</v>
+        <v>1.008031772326101</v>
       </c>
       <c r="D16">
-        <v>1.000002010629923</v>
+        <v>1.005357951003768</v>
       </c>
       <c r="E16">
-        <v>1.000006356648063</v>
+        <v>1.025071182760622</v>
       </c>
       <c r="F16">
-        <v>0.9999871542416637</v>
+        <v>0.9820013205268365</v>
       </c>
       <c r="G16">
-        <v>1.000020600305919</v>
+        <v>1.005357951003768</v>
       </c>
       <c r="H16">
-        <v>0.9999966649149519</v>
+        <v>0.9688632058136829</v>
       </c>
       <c r="I16">
-        <v>1.000000756528966</v>
+        <v>1.009132107156179</v>
       </c>
       <c r="J16">
-        <v>1.000002010629923</v>
+        <v>0.9688632058136829</v>
       </c>
       <c r="K16">
-        <v>0.9999871542416637</v>
+        <v>1.005357951003768</v>
       </c>
       <c r="L16">
-        <v>1.000006356648063</v>
+        <v>1.009132107156179</v>
       </c>
       <c r="M16">
-        <v>1.000004183638993</v>
+        <v>0.9889976564849308</v>
       </c>
       <c r="N16">
-        <v>1.000004183638993</v>
+        <v>0.9889976564849308</v>
       </c>
       <c r="O16">
-        <v>1.000001677397646</v>
+        <v>0.9866655444988993</v>
       </c>
       <c r="P16">
-        <v>0.9999985071732166</v>
+        <v>0.9944510879912097</v>
       </c>
       <c r="Q16">
-        <v>0.9999985071732166</v>
+        <v>0.9944510879912096</v>
       </c>
       <c r="R16">
-        <v>0.9999956689403284</v>
+        <v>0.9971778037443492</v>
       </c>
       <c r="S16">
-        <v>0.9999956689403284</v>
+        <v>0.9971778037443492</v>
       </c>
       <c r="T16">
-        <v>1.000002257211581</v>
+        <v>0.9997429232645314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000085112625553</v>
+        <v>1.006636811214281</v>
       </c>
       <c r="D17">
-        <v>0.9998228182720169</v>
+        <v>1.00527712149616</v>
       </c>
       <c r="E17">
-        <v>1.000021620766043</v>
+        <v>1.019555848672383</v>
       </c>
       <c r="F17">
-        <v>1.000085112625553</v>
+        <v>0.9852318234295021</v>
       </c>
       <c r="G17">
-        <v>1.000045553534905</v>
+        <v>1.00527712149616</v>
       </c>
       <c r="H17">
-        <v>0.9999172473878444</v>
+        <v>0.9739563355311728</v>
       </c>
       <c r="I17">
-        <v>1.000040130040477</v>
+        <v>1.007196353606088</v>
       </c>
       <c r="J17">
-        <v>0.9998228182720169</v>
+        <v>0.9739563355311728</v>
       </c>
       <c r="K17">
-        <v>1.000085112625553</v>
+        <v>1.00527712149616</v>
       </c>
       <c r="L17">
-        <v>1.000021620766043</v>
+        <v>1.007196353606088</v>
       </c>
       <c r="M17">
-        <v>0.9999222195190298</v>
+        <v>0.9905763445686302</v>
       </c>
       <c r="N17">
-        <v>0.9999222195190298</v>
+        <v>0.9905763445686302</v>
       </c>
       <c r="O17">
-        <v>0.999920562141968</v>
+        <v>0.9887948375222542</v>
       </c>
       <c r="P17">
-        <v>0.9999765172212042</v>
+        <v>0.9954766035444734</v>
       </c>
       <c r="Q17">
-        <v>0.9999765172212042</v>
+        <v>0.9954766035444734</v>
       </c>
       <c r="R17">
-        <v>1.000003666072291</v>
+        <v>0.9979267330323951</v>
       </c>
       <c r="S17">
-        <v>1.000003666072291</v>
+        <v>0.9979267330323951</v>
       </c>
       <c r="T17">
-        <v>0.9999887471044731</v>
+        <v>0.9996423823249311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000007925076776</v>
+        <v>1.003838680905052</v>
       </c>
       <c r="D18">
-        <v>0.9995557276923693</v>
+        <v>1.005089331509321</v>
       </c>
       <c r="E18">
-        <v>1.000168373074284</v>
+        <v>1.008527769377927</v>
       </c>
       <c r="F18">
-        <v>1.000007925076776</v>
+        <v>0.99170868729448</v>
       </c>
       <c r="G18">
-        <v>1.000479541113198</v>
+        <v>1.005089331509321</v>
       </c>
       <c r="H18">
-        <v>0.9997185221281915</v>
+        <v>0.9841820700511992</v>
       </c>
       <c r="I18">
-        <v>1.000121592533445</v>
+        <v>1.003324012761678</v>
       </c>
       <c r="J18">
-        <v>0.9995557276923693</v>
+        <v>0.9841820700511992</v>
       </c>
       <c r="K18">
-        <v>1.000007925076776</v>
+        <v>1.005089331509321</v>
       </c>
       <c r="L18">
-        <v>1.000168373074284</v>
+        <v>1.003324012761678</v>
       </c>
       <c r="M18">
-        <v>0.9998620503833267</v>
+        <v>0.9937530414064385</v>
       </c>
       <c r="N18">
-        <v>0.9998620503833267</v>
+        <v>0.9937530414064385</v>
       </c>
       <c r="O18">
-        <v>0.9998142076316149</v>
+        <v>0.9930715900357857</v>
       </c>
       <c r="P18">
-        <v>0.9999106752811432</v>
+        <v>0.997531804774066</v>
       </c>
       <c r="Q18">
-        <v>0.9999106752811432</v>
+        <v>0.997531804774066</v>
       </c>
       <c r="R18">
-        <v>0.9999349877300514</v>
+        <v>0.9994211864578797</v>
       </c>
       <c r="S18">
-        <v>0.9999349877300514</v>
+        <v>0.9994211864578797</v>
       </c>
       <c r="T18">
-        <v>1.000008613603044</v>
+        <v>0.9994450919832762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.003979190892766</v>
+      </c>
+      <c r="D19">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="E19">
+        <v>1.008266080650149</v>
+      </c>
+      <c r="F19">
+        <v>0.991456846111728</v>
+      </c>
+      <c r="G19">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="H19">
+        <v>0.9834475374337953</v>
+      </c>
+      <c r="I19">
+        <v>1.003272836131152</v>
+      </c>
+      <c r="J19">
+        <v>0.9834475374337953</v>
+      </c>
+      <c r="K19">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="L19">
+        <v>1.003272836131152</v>
+      </c>
+      <c r="M19">
+        <v>0.9933601867824735</v>
+      </c>
+      <c r="N19">
+        <v>0.9933601867824735</v>
+      </c>
+      <c r="O19">
+        <v>0.992725739892225</v>
+      </c>
+      <c r="P19">
+        <v>0.9974719966983837</v>
+      </c>
+      <c r="Q19">
+        <v>0.9974719966983837</v>
+      </c>
+      <c r="R19">
+        <v>0.9995279016563388</v>
+      </c>
+      <c r="S19">
+        <v>0.9995279016563388</v>
+      </c>
+      <c r="T19">
+        <v>0.999353017958299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000756528966</v>
+      </c>
+      <c r="D20">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="E20">
+        <v>1.000020600305919</v>
+      </c>
+      <c r="F20">
+        <v>0.9999966649149519</v>
+      </c>
+      <c r="G20">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="H20">
+        <v>1.000002010629923</v>
+      </c>
+      <c r="I20">
+        <v>1.000006356648063</v>
+      </c>
+      <c r="J20">
+        <v>1.000002010629923</v>
+      </c>
+      <c r="K20">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="L20">
+        <v>1.000006356648063</v>
+      </c>
+      <c r="M20">
+        <v>1.000004183638993</v>
+      </c>
+      <c r="N20">
+        <v>1.000004183638993</v>
+      </c>
+      <c r="O20">
+        <v>1.000001677397646</v>
+      </c>
+      <c r="P20">
+        <v>0.9999985071732166</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999985071732166</v>
+      </c>
+      <c r="R20">
+        <v>0.9999956689403284</v>
+      </c>
+      <c r="S20">
+        <v>0.9999956689403284</v>
+      </c>
+      <c r="T20">
+        <v>1.000002257211581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000040130040477</v>
+      </c>
+      <c r="D21">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="E21">
+        <v>1.000045553534905</v>
+      </c>
+      <c r="F21">
+        <v>0.9999172473878445</v>
+      </c>
+      <c r="G21">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="H21">
+        <v>0.9998228182720168</v>
+      </c>
+      <c r="I21">
+        <v>1.000021620766043</v>
+      </c>
+      <c r="J21">
+        <v>0.9998228182720168</v>
+      </c>
+      <c r="K21">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="L21">
+        <v>1.000021620766043</v>
+      </c>
+      <c r="M21">
+        <v>0.9999222195190299</v>
+      </c>
+      <c r="N21">
+        <v>0.9999222195190299</v>
+      </c>
+      <c r="O21">
+        <v>0.9999205621419681</v>
+      </c>
+      <c r="P21">
+        <v>0.9999765172212042</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999765172212042</v>
+      </c>
+      <c r="R21">
+        <v>1.000003666072291</v>
+      </c>
+      <c r="S21">
+        <v>1.000003666072291</v>
+      </c>
+      <c r="T21">
+        <v>0.9999887471044731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000121592533445</v>
+      </c>
+      <c r="D22">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="E22">
+        <v>1.000479541113198</v>
+      </c>
+      <c r="F22">
+        <v>0.9997185221281915</v>
+      </c>
+      <c r="G22">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="H22">
+        <v>0.9995557276923693</v>
+      </c>
+      <c r="I22">
+        <v>1.000168373074284</v>
+      </c>
+      <c r="J22">
+        <v>0.9995557276923693</v>
+      </c>
+      <c r="K22">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="L22">
+        <v>1.000168373074284</v>
+      </c>
+      <c r="M22">
+        <v>0.9998620503833264</v>
+      </c>
+      <c r="N22">
+        <v>0.9998620503833264</v>
+      </c>
+      <c r="O22">
+        <v>0.9998142076316148</v>
+      </c>
+      <c r="P22">
+        <v>0.9999106752811429</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999106752811429</v>
+      </c>
+      <c r="R22">
+        <v>0.9999349877300512</v>
+      </c>
+      <c r="S22">
+        <v>0.9999349877300512</v>
+      </c>
+      <c r="T22">
+        <v>1.000008613603044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000271684032726</v>
+      </c>
+      <c r="D23">
         <v>0.9998234298276983</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.00133690346774</v>
+      </c>
+      <c r="F23">
+        <v>0.9993471827295068</v>
+      </c>
+      <c r="G23">
+        <v>0.9998234298276983</v>
+      </c>
+      <c r="H23">
         <v>0.999079287429289</v>
       </c>
-      <c r="E19">
+      <c r="I23">
         <v>1.000456155262291</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.999079287429289</v>
+      </c>
+      <c r="K23">
         <v>0.9998234298276983</v>
       </c>
-      <c r="G19">
-        <v>1.00133690346774</v>
-      </c>
-      <c r="H19">
-        <v>0.9993471827295068</v>
-      </c>
-      <c r="I19">
-        <v>1.000271684032726</v>
-      </c>
-      <c r="J19">
-        <v>0.999079287429289</v>
-      </c>
-      <c r="K19">
-        <v>0.9998234298276983</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000456155262291</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9997677213457901</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9997677213457901</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.999627541807029</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997862908397596</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997862908397596</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9997955755867443</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9997955755867443</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000052440458209</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000410442215831</v>
+        <v>1.003969536095098</v>
       </c>
       <c r="D3">
-        <v>1.000255690837766</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="E3">
-        <v>1.001305940263833</v>
+        <v>1.008620981865993</v>
       </c>
       <c r="F3">
-        <v>0.9990780007140622</v>
+        <v>0.991443817074928</v>
       </c>
       <c r="G3">
-        <v>1.000255690837766</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="H3">
-        <v>0.9984155452208341</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="I3">
-        <v>1.000474127820834</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="J3">
-        <v>0.9984155452208341</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="K3">
-        <v>1.000255690837766</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="L3">
-        <v>1.000474127820834</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="M3">
-        <v>0.9994448365208342</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="N3">
-        <v>0.9994448365208342</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="O3">
-        <v>0.9993225579185768</v>
+        <v>0.9928036556075885</v>
       </c>
       <c r="P3">
-        <v>0.9997151212931445</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="Q3">
-        <v>0.9997151212931445</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="R3">
-        <v>0.9998502636792999</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="S3">
-        <v>0.9998502636792999</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="T3">
-        <v>0.9999899578455267</v>
+        <v>0.9994014766318436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000792808220672</v>
+        <v>1.00384977118897</v>
       </c>
       <c r="D4">
-        <v>1.000500344128951</v>
+        <v>1.005189361610138</v>
       </c>
       <c r="E4">
-        <v>1.002513734075948</v>
+        <v>1.008435840052176</v>
       </c>
       <c r="F4">
-        <v>0.9982198620082953</v>
+        <v>0.9916952200447177</v>
       </c>
       <c r="G4">
-        <v>1.000500344128951</v>
+        <v>1.005189361610138</v>
       </c>
       <c r="H4">
-        <v>0.9969370858835291</v>
+        <v>0.9841047620014921</v>
       </c>
       <c r="I4">
-        <v>1.000913165420139</v>
+        <v>1.003298503965712</v>
       </c>
       <c r="J4">
-        <v>0.9969370858835291</v>
+        <v>0.9841047620014921</v>
       </c>
       <c r="K4">
-        <v>1.000500344128951</v>
+        <v>1.005189361610138</v>
       </c>
       <c r="L4">
-        <v>1.000913165420139</v>
+        <v>1.003298503965712</v>
       </c>
       <c r="M4">
-        <v>0.9989251256518339</v>
+        <v>0.9937016329836021</v>
       </c>
       <c r="N4">
-        <v>0.9989251256518339</v>
+        <v>0.9937016329836021</v>
       </c>
       <c r="O4">
-        <v>0.9986900377706543</v>
+        <v>0.9930328286706406</v>
       </c>
       <c r="P4">
-        <v>0.9994501984775397</v>
+        <v>0.997530875859114</v>
       </c>
       <c r="Q4">
-        <v>0.9994501984775397</v>
+        <v>0.997530875859114</v>
       </c>
       <c r="R4">
-        <v>0.9997127348903926</v>
+        <v>0.99944549729687</v>
       </c>
       <c r="S4">
-        <v>0.9997127348903926</v>
+        <v>0.99944549729687</v>
       </c>
       <c r="T4">
-        <v>0.9999794999562557</v>
+        <v>0.9994289098105344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001520352252464</v>
+        <v>1.004232364636118</v>
       </c>
       <c r="D5">
-        <v>1.000974110631096</v>
+        <v>1.00587065471698</v>
       </c>
       <c r="E5">
-        <v>1.004800563702739</v>
+        <v>1.00904798059299</v>
       </c>
       <c r="F5">
-        <v>0.9965880639546234</v>
+        <v>0.9908902418867925</v>
       </c>
       <c r="G5">
-        <v>1.000974110631096</v>
+        <v>1.00587065471698</v>
       </c>
       <c r="H5">
-        <v>0.9941209107157233</v>
+        <v>0.982463757061994</v>
       </c>
       <c r="I5">
-        <v>1.001745139869185</v>
+        <v>1.003558174555256</v>
       </c>
       <c r="J5">
-        <v>0.9941209107157233</v>
+        <v>0.982463757061994</v>
       </c>
       <c r="K5">
-        <v>1.000974110631096</v>
+        <v>1.00587065471698</v>
       </c>
       <c r="L5">
-        <v>1.001745139869185</v>
+        <v>1.003558174555256</v>
       </c>
       <c r="M5">
-        <v>0.9979330252924543</v>
+        <v>0.9930109658086248</v>
       </c>
       <c r="N5">
-        <v>0.9979330252924543</v>
+        <v>0.9930109658086248</v>
       </c>
       <c r="O5">
-        <v>0.9974847048465106</v>
+        <v>0.9923040578346808</v>
       </c>
       <c r="P5">
-        <v>0.9989467204053349</v>
+        <v>0.9972975287780764</v>
       </c>
       <c r="Q5">
-        <v>0.9989467204053349</v>
+        <v>0.9972975287780764</v>
       </c>
       <c r="R5">
-        <v>0.9994535679617751</v>
+        <v>0.9994408102628023</v>
       </c>
       <c r="S5">
-        <v>0.9994535679617751</v>
+        <v>0.9994408102628023</v>
       </c>
       <c r="T5">
-        <v>0.9999581901876385</v>
+        <v>0.9993438622416884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002230575777028</v>
+        <v>1.004519842727273</v>
       </c>
       <c r="D6">
-        <v>1.001439177050224</v>
+        <v>1.006361794943181</v>
       </c>
       <c r="E6">
-        <v>1.007029447585716</v>
+        <v>1.00953633596591</v>
       </c>
       <c r="F6">
-        <v>0.9949954272931013</v>
+        <v>0.9902828367045454</v>
       </c>
       <c r="G6">
-        <v>1.001439177050224</v>
+        <v>1.006361794943181</v>
       </c>
       <c r="H6">
-        <v>0.9913708074342681</v>
+        <v>0.9812384143750007</v>
       </c>
       <c r="I6">
-        <v>1.002556244507236</v>
+        <v>1.003761840454545</v>
       </c>
       <c r="J6">
-        <v>0.9913708074342681</v>
+        <v>0.9812384143750007</v>
       </c>
       <c r="K6">
-        <v>1.001439177050224</v>
+        <v>1.006361794943181</v>
       </c>
       <c r="L6">
-        <v>1.002556244507236</v>
+        <v>1.003761840454545</v>
       </c>
       <c r="M6">
-        <v>0.9969635259707523</v>
+        <v>0.9925001274147729</v>
       </c>
       <c r="N6">
-        <v>0.9969635259707523</v>
+        <v>0.9925001274147729</v>
       </c>
       <c r="O6">
-        <v>0.996307493078202</v>
+        <v>0.9917610305113637</v>
       </c>
       <c r="P6">
-        <v>0.9984554096639097</v>
+        <v>0.9971206832575756</v>
       </c>
       <c r="Q6">
-        <v>0.9984554096639097</v>
+        <v>0.9971206832575756</v>
       </c>
       <c r="R6">
-        <v>0.9992013515104883</v>
+        <v>0.9994309611789771</v>
       </c>
       <c r="S6">
-        <v>0.9992013515104883</v>
+        <v>0.9994309611789771</v>
       </c>
       <c r="T6">
-        <v>0.999936946607929</v>
+        <v>0.9992835108617427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000034127842055</v>
+        <v>0.9578965424945154</v>
       </c>
       <c r="D7">
-        <v>1.000049076011316</v>
+        <v>0.9598189099883736</v>
       </c>
       <c r="E7">
-        <v>1.000070584067269</v>
+        <v>0.8850976834139249</v>
       </c>
       <c r="F7">
-        <v>0.999926758262102</v>
+        <v>1.092863988066749</v>
       </c>
       <c r="G7">
-        <v>1.000049076011316</v>
+        <v>0.9598189099883736</v>
       </c>
       <c r="H7">
-        <v>0.9998579505532746</v>
+        <v>1.167701824189948</v>
       </c>
       <c r="I7">
-        <v>1.000027978999871</v>
+        <v>0.9571054539973884</v>
       </c>
       <c r="J7">
-        <v>0.9998579505532746</v>
+        <v>1.167701824189948</v>
       </c>
       <c r="K7">
-        <v>1.000049076011316</v>
+        <v>0.9598189099883736</v>
       </c>
       <c r="L7">
-        <v>1.000027978999871</v>
+        <v>0.9571054539973884</v>
       </c>
       <c r="M7">
-        <v>0.9999429647765727</v>
+        <v>1.062403639093668</v>
       </c>
       <c r="N7">
-        <v>0.9999429647765727</v>
+        <v>1.062403639093668</v>
       </c>
       <c r="O7">
-        <v>0.9999375626050825</v>
+        <v>1.072557088751362</v>
       </c>
       <c r="P7">
-        <v>0.9999783351881538</v>
+        <v>1.028208729391903</v>
       </c>
       <c r="Q7">
-        <v>0.9999783351881538</v>
+        <v>1.028208729391903</v>
       </c>
       <c r="R7">
-        <v>0.9999960203939444</v>
+        <v>1.011111274541021</v>
       </c>
       <c r="S7">
-        <v>0.9999960203939444</v>
+        <v>1.011111274541021</v>
       </c>
       <c r="T7">
-        <v>0.999994412622648</v>
+        <v>1.00341406702515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000077671213492</v>
+        <v>0.9582828225498004</v>
       </c>
       <c r="D8">
-        <v>1.000117282003839</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="E8">
-        <v>1.000153005019969</v>
+        <v>0.8860450716547459</v>
       </c>
       <c r="F8">
-        <v>0.999833994888925</v>
+        <v>1.092021613673433</v>
       </c>
       <c r="G8">
-        <v>1.000117282003839</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="H8">
-        <v>0.9996746419439581</v>
+        <v>1.166134286361309</v>
       </c>
       <c r="I8">
-        <v>1.000061373648307</v>
+        <v>0.957466826900815</v>
       </c>
       <c r="J8">
-        <v>0.9996746419439581</v>
+        <v>1.166134286361309</v>
       </c>
       <c r="K8">
-        <v>1.000117282003839</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="L8">
-        <v>1.000061373648307</v>
+        <v>0.957466826900815</v>
       </c>
       <c r="M8">
-        <v>0.9998680077961324</v>
+        <v>1.061800556631062</v>
       </c>
       <c r="N8">
-        <v>0.9998680077961324</v>
+        <v>1.061800556631062</v>
       </c>
       <c r="O8">
-        <v>0.9998566701603965</v>
+        <v>1.071874242311852</v>
       </c>
       <c r="P8">
-        <v>0.9999510991987014</v>
+        <v>1.027955609502528</v>
       </c>
       <c r="Q8">
-        <v>0.9999510991987014</v>
+        <v>1.027955609502528</v>
       </c>
       <c r="R8">
-        <v>0.9999926448999858</v>
+        <v>1.011033135938261</v>
       </c>
       <c r="S8">
-        <v>0.9999926448999858</v>
+        <v>1.011033135938261</v>
       </c>
       <c r="T8">
-        <v>0.9999863281197482</v>
+        <v>1.003369389397594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000132161299741</v>
+        <v>0.9585703135306558</v>
       </c>
       <c r="D9">
-        <v>1.000190082741071</v>
+        <v>0.9605982523803199</v>
       </c>
       <c r="E9">
-        <v>1.000273294282414</v>
+        <v>0.8867501703314488</v>
       </c>
       <c r="F9">
-        <v>0.9997163685173881</v>
+        <v>1.09139467204314</v>
       </c>
       <c r="G9">
-        <v>1.000190082741071</v>
+        <v>0.9605982523803199</v>
       </c>
       <c r="H9">
-        <v>0.9994499010156477</v>
+        <v>1.164967637984389</v>
       </c>
       <c r="I9">
-        <v>1.000108327473006</v>
+        <v>0.9577357805873783</v>
       </c>
       <c r="J9">
-        <v>0.9994499010156477</v>
+        <v>1.164967637984389</v>
       </c>
       <c r="K9">
-        <v>1.000190082741071</v>
+        <v>0.9605982523803199</v>
       </c>
       <c r="L9">
-        <v>1.000108327473006</v>
+        <v>0.9577357805873783</v>
       </c>
       <c r="M9">
-        <v>0.9997791142443269</v>
+        <v>1.061351709285884</v>
       </c>
       <c r="N9">
-        <v>0.9997791142443269</v>
+        <v>1.061351709285884</v>
       </c>
       <c r="O9">
-        <v>0.9997581990020139</v>
+        <v>1.071366030204969</v>
       </c>
       <c r="P9">
-        <v>0.9999161037432417</v>
+        <v>1.027767223650696</v>
       </c>
       <c r="Q9">
-        <v>0.9999161037432417</v>
+        <v>1.027767223650696</v>
       </c>
       <c r="R9">
-        <v>0.9999845984926992</v>
+        <v>1.010974980833102</v>
       </c>
       <c r="S9">
-        <v>0.9999845984926992</v>
+        <v>1.010974980833102</v>
       </c>
       <c r="T9">
-        <v>0.9999783558882114</v>
+        <v>1.003336137809555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000265474564124</v>
+        <v>0.9596359388517376</v>
       </c>
       <c r="D10">
-        <v>1.00038554826722</v>
+        <v>0.9618308473563388</v>
       </c>
       <c r="E10">
-        <v>1.00054387882897</v>
+        <v>0.8893637164644262</v>
       </c>
       <c r="F10">
-        <v>0.9994307228710118</v>
+        <v>1.089070825767081</v>
       </c>
       <c r="G10">
-        <v>1.00038554826722</v>
+        <v>0.9618308473563388</v>
       </c>
       <c r="H10">
-        <v>0.99889363030713</v>
+        <v>1.160643293601824</v>
       </c>
       <c r="I10">
-        <v>1.000216064116477</v>
+        <v>0.9587326947702473</v>
       </c>
       <c r="J10">
-        <v>0.99889363030713</v>
+        <v>1.160643293601824</v>
       </c>
       <c r="K10">
-        <v>1.00038554826722</v>
+        <v>0.9618308473563388</v>
       </c>
       <c r="L10">
-        <v>1.000216064116477</v>
+        <v>0.9587326947702473</v>
       </c>
       <c r="M10">
-        <v>0.9995548472118037</v>
+        <v>1.059687994186036</v>
       </c>
       <c r="N10">
-        <v>0.9995548472118037</v>
+        <v>1.059687994186036</v>
       </c>
       <c r="O10">
-        <v>0.9995134724315397</v>
+        <v>1.069482271379717</v>
       </c>
       <c r="P10">
-        <v>0.999831747563609</v>
+        <v>1.027068945242803</v>
       </c>
       <c r="Q10">
-        <v>0.9998317475636092</v>
+        <v>1.027068945242803</v>
       </c>
       <c r="R10">
-        <v>0.9999701977395119</v>
+        <v>1.010759420771187</v>
       </c>
       <c r="S10">
-        <v>0.9999701977395119</v>
+        <v>1.010759420771187</v>
       </c>
       <c r="T10">
-        <v>0.9999558864924888</v>
+        <v>1.003212886135276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00047841288687</v>
+        <v>1.000271112346884</v>
       </c>
       <c r="D11">
-        <v>1.000689554950025</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="E11">
-        <v>1.000987301191532</v>
+        <v>1.00091986059413</v>
       </c>
       <c r="F11">
-        <v>0.9989734553463477</v>
+        <v>0.9993858339052846</v>
       </c>
       <c r="G11">
-        <v>1.000689554950025</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="H11">
-        <v>0.9980081459426831</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="I11">
-        <v>1.000391527239763</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="J11">
-        <v>0.9980081459426831</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="K11">
-        <v>1.000689554950025</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="L11">
-        <v>1.000391527239763</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="M11">
-        <v>0.9991998365912231</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="N11">
-        <v>0.9991998365912231</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="O11">
-        <v>0.9991243761762646</v>
+        <v>0.9995617262864753</v>
       </c>
       <c r="P11">
-        <v>0.9996964093774903</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="Q11">
-        <v>0.9996964093774903</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="R11">
-        <v>0.9999446957706239</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="S11">
-        <v>0.9999446957706239</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="T11">
-        <v>0.9999213995928701</v>
+        <v>1.000000524908615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000695226278909</v>
+        <v>1.000013134449748</v>
       </c>
       <c r="D12">
-        <v>1.000282481962375</v>
+        <v>0.9999426375888395</v>
       </c>
       <c r="E12">
-        <v>1.002417857854792</v>
+        <v>1.000131341681134</v>
       </c>
       <c r="F12">
-        <v>0.9984197460422124</v>
+        <v>0.9999624371037938</v>
       </c>
       <c r="G12">
-        <v>1.000282481962375</v>
+        <v>0.9999426375888395</v>
       </c>
       <c r="H12">
-        <v>0.9973719629308196</v>
+        <v>0.9999735702473509</v>
       </c>
       <c r="I12">
-        <v>1.000865077468418</v>
+        <v>1.000042148209244</v>
       </c>
       <c r="J12">
-        <v>0.9973719629308196</v>
+        <v>0.9999735702473509</v>
       </c>
       <c r="K12">
-        <v>1.000282481962375</v>
+        <v>0.9999426375888395</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.000042148209244</v>
       </c>
       <c r="M12">
-        <v>0.9991185201996189</v>
+        <v>1.000007859228297</v>
       </c>
       <c r="N12">
-        <v>0.9991185201996189</v>
+        <v>1.000007859228297</v>
       </c>
       <c r="O12">
-        <v>0.9988855954804835</v>
+        <v>0.9999927185201297</v>
       </c>
       <c r="P12">
-        <v>0.9995065074538708</v>
+        <v>0.9999861186818114</v>
       </c>
       <c r="Q12">
-        <v>0.9995065074538708</v>
+        <v>0.9999861186818114</v>
       </c>
       <c r="R12">
-        <v>0.9997005010809967</v>
+        <v>0.9999752484085684</v>
       </c>
       <c r="S12">
-        <v>0.9997005010809967</v>
+        <v>0.9999752484085684</v>
       </c>
       <c r="T12">
-        <v>1.000008725422921</v>
+        <v>1.000010878213352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000211121594492</v>
+        <v>1.00020490296452</v>
       </c>
       <c r="D13">
-        <v>1.000410226801606</v>
+        <v>0.9999423592931165</v>
       </c>
       <c r="E13">
-        <v>1.000290957719286</v>
+        <v>1.000905098257389</v>
       </c>
       <c r="F13">
-        <v>0.9995600236539687</v>
+        <v>0.9995169340705807</v>
       </c>
       <c r="G13">
-        <v>1.000410226801606</v>
+        <v>0.9999423592931165</v>
       </c>
       <c r="H13">
-        <v>0.9990817833146898</v>
+        <v>0.9992776302920942</v>
       </c>
       <c r="I13">
-        <v>1.000129187227137</v>
+        <v>1.000312944402372</v>
       </c>
       <c r="J13">
-        <v>0.9990817833146898</v>
+        <v>0.9992776302920942</v>
       </c>
       <c r="K13">
-        <v>1.000410226801606</v>
+        <v>0.9999423592931165</v>
       </c>
       <c r="L13">
-        <v>1.000129187227137</v>
+        <v>1.000312944402372</v>
       </c>
       <c r="M13">
-        <v>0.9996054852709135</v>
+        <v>0.9997952873472329</v>
       </c>
       <c r="N13">
-        <v>0.9996054852709135</v>
+        <v>0.9997952873472329</v>
       </c>
       <c r="O13">
-        <v>0.9995903313985987</v>
+        <v>0.9997025029216822</v>
       </c>
       <c r="P13">
-        <v>0.9998737324478112</v>
+        <v>0.999844311329194</v>
       </c>
       <c r="Q13">
-        <v>0.9998737324478112</v>
+        <v>0.9998443113291943</v>
       </c>
       <c r="R13">
-        <v>1.00000785603626</v>
+        <v>0.9998688233201748</v>
       </c>
       <c r="S13">
-        <v>1.00000785603626</v>
+        <v>0.9998688233201748</v>
       </c>
       <c r="T13">
-        <v>0.99994721671853</v>
+        <v>1.000026644880012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.053363000455561</v>
+        <v>1.00113834511906</v>
       </c>
       <c r="D14">
-        <v>1.04548728095121</v>
+        <v>1.000728585515619</v>
       </c>
       <c r="E14">
-        <v>1.153061593316328</v>
+        <v>1.003595408674011</v>
       </c>
       <c r="F14">
-        <v>0.8816329661722334</v>
+        <v>0.9974452659355414</v>
       </c>
       <c r="G14">
-        <v>1.04548728095121</v>
+        <v>1.000728585515619</v>
       </c>
       <c r="H14">
-        <v>0.7894649163113109</v>
+        <v>0.9955983885815105</v>
       </c>
       <c r="I14">
-        <v>1.056604045948</v>
+        <v>1.001306968227284</v>
       </c>
       <c r="J14">
-        <v>0.7894649163113109</v>
+        <v>0.9955983885815105</v>
       </c>
       <c r="K14">
-        <v>1.04548728095121</v>
+        <v>1.000728585515619</v>
       </c>
       <c r="L14">
-        <v>1.056604045948</v>
+        <v>1.001306968227284</v>
       </c>
       <c r="M14">
-        <v>0.9230344811296556</v>
+        <v>0.9984526784043973</v>
       </c>
       <c r="N14">
-        <v>0.9230344811296556</v>
+        <v>0.9984526784043973</v>
       </c>
       <c r="O14">
-        <v>0.9092339761438483</v>
+        <v>0.998116874248112</v>
       </c>
       <c r="P14">
-        <v>0.9638520810701738</v>
+        <v>0.9992113141081379</v>
       </c>
       <c r="Q14">
-        <v>0.9638520810701737</v>
+        <v>0.9992113141081379</v>
       </c>
       <c r="R14">
-        <v>0.9842608810404327</v>
+        <v>0.9995906319600082</v>
       </c>
       <c r="S14">
-        <v>0.9842608810404327</v>
+        <v>0.9995906319600082</v>
       </c>
       <c r="T14">
-        <v>0.9966023005257739</v>
+        <v>0.9999688270088377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.01472075290998</v>
+        <v>1.000410442215831</v>
       </c>
       <c r="D15">
-        <v>1.018021394410658</v>
+        <v>1.000255690837766</v>
       </c>
       <c r="E15">
-        <v>1.034745780519005</v>
+        <v>1.001305940263833</v>
       </c>
       <c r="F15">
-        <v>0.9680202245104421</v>
+        <v>0.9990780007140622</v>
       </c>
       <c r="G15">
-        <v>1.018021394410658</v>
+        <v>1.000255690837766</v>
       </c>
       <c r="H15">
-        <v>0.9398945720535596</v>
+        <v>0.9984155452208341</v>
       </c>
       <c r="I15">
-        <v>1.013362453267904</v>
+        <v>1.000474127820834</v>
       </c>
       <c r="J15">
-        <v>0.9398945720535596</v>
+        <v>0.9984155452208341</v>
       </c>
       <c r="K15">
-        <v>1.018021394410658</v>
+        <v>1.000255690837766</v>
       </c>
       <c r="L15">
-        <v>1.013362453267904</v>
+        <v>1.000474127820834</v>
       </c>
       <c r="M15">
-        <v>0.9766285126607316</v>
+        <v>0.9994448365208342</v>
       </c>
       <c r="N15">
-        <v>0.9766285126607316</v>
+        <v>0.9994448365208342</v>
       </c>
       <c r="O15">
-        <v>0.9737590832773018</v>
+        <v>0.9993225579185768</v>
       </c>
       <c r="P15">
-        <v>0.9904261399107073</v>
+        <v>0.9997151212931445</v>
       </c>
       <c r="Q15">
-        <v>0.9904261399107073</v>
+        <v>0.9997151212931445</v>
       </c>
       <c r="R15">
-        <v>0.9973249535356951</v>
+        <v>0.9998502636792999</v>
       </c>
       <c r="S15">
-        <v>0.9973249535356951</v>
+        <v>0.9998502636792999</v>
       </c>
       <c r="T15">
-        <v>0.9981275296119249</v>
+        <v>0.9999899578455267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.008031772326101</v>
+        <v>1.000792808220672</v>
       </c>
       <c r="D16">
-        <v>1.005357951003768</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="E16">
-        <v>1.025071182760622</v>
+        <v>1.002513734075948</v>
       </c>
       <c r="F16">
-        <v>0.9820013205268365</v>
+        <v>0.9982198620082953</v>
       </c>
       <c r="G16">
-        <v>1.005357951003768</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="H16">
-        <v>0.9688632058136829</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="I16">
-        <v>1.009132107156179</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="J16">
-        <v>0.9688632058136829</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="K16">
-        <v>1.005357951003768</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="L16">
-        <v>1.009132107156179</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="M16">
-        <v>0.9889976564849308</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="N16">
-        <v>0.9889976564849308</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="O16">
-        <v>0.9866655444988993</v>
+        <v>0.9986900377706543</v>
       </c>
       <c r="P16">
-        <v>0.9944510879912097</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="Q16">
-        <v>0.9944510879912096</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="R16">
-        <v>0.9971778037443492</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="S16">
-        <v>0.9971778037443492</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="T16">
-        <v>0.9997429232645314</v>
+        <v>0.9999794999562557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006636811214281</v>
+        <v>1.001520352252464</v>
       </c>
       <c r="D17">
-        <v>1.00527712149616</v>
+        <v>1.000974110631096</v>
       </c>
       <c r="E17">
-        <v>1.019555848672383</v>
+        <v>1.004800563702739</v>
       </c>
       <c r="F17">
-        <v>0.9852318234295021</v>
+        <v>0.9965880639546234</v>
       </c>
       <c r="G17">
-        <v>1.00527712149616</v>
+        <v>1.000974110631096</v>
       </c>
       <c r="H17">
-        <v>0.9739563355311728</v>
+        <v>0.9941209107157233</v>
       </c>
       <c r="I17">
-        <v>1.007196353606088</v>
+        <v>1.001745139869185</v>
       </c>
       <c r="J17">
-        <v>0.9739563355311728</v>
+        <v>0.9941209107157233</v>
       </c>
       <c r="K17">
-        <v>1.00527712149616</v>
+        <v>1.000974110631096</v>
       </c>
       <c r="L17">
-        <v>1.007196353606088</v>
+        <v>1.001745139869185</v>
       </c>
       <c r="M17">
-        <v>0.9905763445686302</v>
+        <v>0.9979330252924543</v>
       </c>
       <c r="N17">
-        <v>0.9905763445686302</v>
+        <v>0.9979330252924543</v>
       </c>
       <c r="O17">
-        <v>0.9887948375222542</v>
+        <v>0.9974847048465106</v>
       </c>
       <c r="P17">
-        <v>0.9954766035444734</v>
+        <v>0.9989467204053349</v>
       </c>
       <c r="Q17">
-        <v>0.9954766035444734</v>
+        <v>0.9989467204053349</v>
       </c>
       <c r="R17">
-        <v>0.9979267330323951</v>
+        <v>0.9994535679617751</v>
       </c>
       <c r="S17">
-        <v>0.9979267330323951</v>
+        <v>0.9994535679617751</v>
       </c>
       <c r="T17">
-        <v>0.9996423823249311</v>
+        <v>0.9999581901876385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003838680905052</v>
+        <v>1.002230575777028</v>
       </c>
       <c r="D18">
-        <v>1.005089331509321</v>
+        <v>1.001439177050224</v>
       </c>
       <c r="E18">
-        <v>1.008527769377927</v>
+        <v>1.007029447585716</v>
       </c>
       <c r="F18">
-        <v>0.99170868729448</v>
+        <v>0.9949954272931013</v>
       </c>
       <c r="G18">
-        <v>1.005089331509321</v>
+        <v>1.001439177050224</v>
       </c>
       <c r="H18">
-        <v>0.9841820700511992</v>
+        <v>0.9913708074342681</v>
       </c>
       <c r="I18">
-        <v>1.003324012761678</v>
+        <v>1.002556244507236</v>
       </c>
       <c r="J18">
-        <v>0.9841820700511992</v>
+        <v>0.9913708074342681</v>
       </c>
       <c r="K18">
-        <v>1.005089331509321</v>
+        <v>1.001439177050224</v>
       </c>
       <c r="L18">
-        <v>1.003324012761678</v>
+        <v>1.002556244507236</v>
       </c>
       <c r="M18">
-        <v>0.9937530414064385</v>
+        <v>0.9969635259707523</v>
       </c>
       <c r="N18">
-        <v>0.9937530414064385</v>
+        <v>0.9969635259707523</v>
       </c>
       <c r="O18">
-        <v>0.9930715900357857</v>
+        <v>0.996307493078202</v>
       </c>
       <c r="P18">
-        <v>0.997531804774066</v>
+        <v>0.9984554096639097</v>
       </c>
       <c r="Q18">
-        <v>0.997531804774066</v>
+        <v>0.9984554096639097</v>
       </c>
       <c r="R18">
-        <v>0.9994211864578797</v>
+        <v>0.9992013515104883</v>
       </c>
       <c r="S18">
-        <v>0.9994211864578797</v>
+        <v>0.9992013515104883</v>
       </c>
       <c r="T18">
-        <v>0.9994450919832762</v>
+        <v>0.999936946607929</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003979190892766</v>
+        <v>1.000034127842055</v>
       </c>
       <c r="D19">
-        <v>1.005695616530204</v>
+        <v>1.000049076011316</v>
       </c>
       <c r="E19">
-        <v>1.008266080650149</v>
+        <v>1.000070584067269</v>
       </c>
       <c r="F19">
-        <v>0.991456846111728</v>
+        <v>0.999926758262102</v>
       </c>
       <c r="G19">
-        <v>1.005695616530204</v>
+        <v>1.000049076011316</v>
       </c>
       <c r="H19">
-        <v>0.9834475374337953</v>
+        <v>0.9998579505532746</v>
       </c>
       <c r="I19">
-        <v>1.003272836131152</v>
+        <v>1.000027978999871</v>
       </c>
       <c r="J19">
-        <v>0.9834475374337953</v>
+        <v>0.9998579505532746</v>
       </c>
       <c r="K19">
-        <v>1.005695616530204</v>
+        <v>1.000049076011316</v>
       </c>
       <c r="L19">
-        <v>1.003272836131152</v>
+        <v>1.000027978999871</v>
       </c>
       <c r="M19">
-        <v>0.9933601867824735</v>
+        <v>0.9999429647765727</v>
       </c>
       <c r="N19">
-        <v>0.9933601867824735</v>
+        <v>0.9999429647765727</v>
       </c>
       <c r="O19">
-        <v>0.992725739892225</v>
+        <v>0.9999375626050825</v>
       </c>
       <c r="P19">
-        <v>0.9974719966983837</v>
+        <v>0.9999783351881538</v>
       </c>
       <c r="Q19">
-        <v>0.9974719966983837</v>
+        <v>0.9999783351881538</v>
       </c>
       <c r="R19">
-        <v>0.9995279016563388</v>
+        <v>0.9999960203939444</v>
       </c>
       <c r="S19">
-        <v>0.9995279016563388</v>
+        <v>0.9999960203939444</v>
       </c>
       <c r="T19">
-        <v>0.999353017958299</v>
+        <v>0.999994412622648</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000756528966</v>
+        <v>1.000077671213492</v>
       </c>
       <c r="D20">
-        <v>0.9999871542416638</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="E20">
-        <v>1.000020600305919</v>
+        <v>1.000153005019969</v>
       </c>
       <c r="F20">
-        <v>0.9999966649149519</v>
+        <v>0.999833994888925</v>
       </c>
       <c r="G20">
-        <v>0.9999871542416638</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="H20">
-        <v>1.000002010629923</v>
+        <v>0.9996746419439581</v>
       </c>
       <c r="I20">
-        <v>1.000006356648063</v>
+        <v>1.000061373648307</v>
       </c>
       <c r="J20">
-        <v>1.000002010629923</v>
+        <v>0.9996746419439581</v>
       </c>
       <c r="K20">
-        <v>0.9999871542416638</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="L20">
-        <v>1.000006356648063</v>
+        <v>1.000061373648307</v>
       </c>
       <c r="M20">
-        <v>1.000004183638993</v>
+        <v>0.9998680077961324</v>
       </c>
       <c r="N20">
-        <v>1.000004183638993</v>
+        <v>0.9998680077961324</v>
       </c>
       <c r="O20">
-        <v>1.000001677397646</v>
+        <v>0.9998566701603965</v>
       </c>
       <c r="P20">
-        <v>0.9999985071732166</v>
+        <v>0.9999510991987014</v>
       </c>
       <c r="Q20">
-        <v>0.9999985071732166</v>
+        <v>0.9999510991987014</v>
       </c>
       <c r="R20">
-        <v>0.9999956689403284</v>
+        <v>0.9999926448999858</v>
       </c>
       <c r="S20">
-        <v>0.9999956689403284</v>
+        <v>0.9999926448999858</v>
       </c>
       <c r="T20">
-        <v>1.000002257211581</v>
+        <v>0.9999863281197482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000040130040477</v>
+        <v>1.000132161299741</v>
       </c>
       <c r="D21">
-        <v>1.000085112625553</v>
+        <v>1.000190082741071</v>
       </c>
       <c r="E21">
-        <v>1.000045553534905</v>
+        <v>1.000273294282414</v>
       </c>
       <c r="F21">
-        <v>0.9999172473878445</v>
+        <v>0.9997163685173881</v>
       </c>
       <c r="G21">
-        <v>1.000085112625553</v>
+        <v>1.000190082741071</v>
       </c>
       <c r="H21">
-        <v>0.9998228182720168</v>
+        <v>0.9994499010156477</v>
       </c>
       <c r="I21">
-        <v>1.000021620766043</v>
+        <v>1.000108327473006</v>
       </c>
       <c r="J21">
-        <v>0.9998228182720168</v>
+        <v>0.9994499010156477</v>
       </c>
       <c r="K21">
-        <v>1.000085112625553</v>
+        <v>1.000190082741071</v>
       </c>
       <c r="L21">
-        <v>1.000021620766043</v>
+        <v>1.000108327473006</v>
       </c>
       <c r="M21">
-        <v>0.9999222195190299</v>
+        <v>0.9997791142443269</v>
       </c>
       <c r="N21">
-        <v>0.9999222195190299</v>
+        <v>0.9997791142443269</v>
       </c>
       <c r="O21">
-        <v>0.9999205621419681</v>
+        <v>0.9997581990020139</v>
       </c>
       <c r="P21">
-        <v>0.9999765172212042</v>
+        <v>0.9999161037432417</v>
       </c>
       <c r="Q21">
-        <v>0.9999765172212042</v>
+        <v>0.9999161037432417</v>
       </c>
       <c r="R21">
-        <v>1.000003666072291</v>
+        <v>0.9999845984926992</v>
       </c>
       <c r="S21">
-        <v>1.000003666072291</v>
+        <v>0.9999845984926992</v>
       </c>
       <c r="T21">
-        <v>0.9999887471044731</v>
+        <v>0.9999783558882114</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000121592533445</v>
+        <v>1.000265474564124</v>
       </c>
       <c r="D22">
-        <v>1.000007925076776</v>
+        <v>1.00038554826722</v>
       </c>
       <c r="E22">
-        <v>1.000479541113198</v>
+        <v>1.00054387882897</v>
       </c>
       <c r="F22">
-        <v>0.9997185221281915</v>
+        <v>0.9994307228710118</v>
       </c>
       <c r="G22">
-        <v>1.000007925076776</v>
+        <v>1.00038554826722</v>
       </c>
       <c r="H22">
-        <v>0.9995557276923693</v>
+        <v>0.99889363030713</v>
       </c>
       <c r="I22">
-        <v>1.000168373074284</v>
+        <v>1.000216064116477</v>
       </c>
       <c r="J22">
-        <v>0.9995557276923693</v>
+        <v>0.99889363030713</v>
       </c>
       <c r="K22">
-        <v>1.000007925076776</v>
+        <v>1.00038554826722</v>
       </c>
       <c r="L22">
-        <v>1.000168373074284</v>
+        <v>1.000216064116477</v>
       </c>
       <c r="M22">
-        <v>0.9998620503833264</v>
+        <v>0.9995548472118037</v>
       </c>
       <c r="N22">
-        <v>0.9998620503833264</v>
+        <v>0.9995548472118037</v>
       </c>
       <c r="O22">
-        <v>0.9998142076316148</v>
+        <v>0.9995134724315397</v>
       </c>
       <c r="P22">
-        <v>0.9999106752811429</v>
+        <v>0.999831747563609</v>
       </c>
       <c r="Q22">
-        <v>0.9999106752811429</v>
+        <v>0.9998317475636092</v>
       </c>
       <c r="R22">
-        <v>0.9999349877300512</v>
+        <v>0.9999701977395119</v>
       </c>
       <c r="S22">
-        <v>0.9999349877300512</v>
+        <v>0.9999701977395119</v>
       </c>
       <c r="T22">
-        <v>1.000008613603044</v>
+        <v>0.9999558864924888</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00047841288687</v>
+      </c>
+      <c r="D23">
+        <v>1.000689554950025</v>
+      </c>
+      <c r="E23">
+        <v>1.000987301191532</v>
+      </c>
+      <c r="F23">
+        <v>0.9989734553463477</v>
+      </c>
+      <c r="G23">
+        <v>1.000689554950025</v>
+      </c>
+      <c r="H23">
+        <v>0.9980081459426831</v>
+      </c>
+      <c r="I23">
+        <v>1.000391527239763</v>
+      </c>
+      <c r="J23">
+        <v>0.9980081459426831</v>
+      </c>
+      <c r="K23">
+        <v>1.000689554950025</v>
+      </c>
+      <c r="L23">
+        <v>1.000391527239763</v>
+      </c>
+      <c r="M23">
+        <v>0.9991998365912231</v>
+      </c>
+      <c r="N23">
+        <v>0.9991998365912231</v>
+      </c>
+      <c r="O23">
+        <v>0.9991243761762646</v>
+      </c>
+      <c r="P23">
+        <v>0.9996964093774903</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996964093774903</v>
+      </c>
+      <c r="R23">
+        <v>0.9999446957706239</v>
+      </c>
+      <c r="S23">
+        <v>0.9999446957706239</v>
+      </c>
+      <c r="T23">
+        <v>0.9999213995928701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000695226278909</v>
+      </c>
+      <c r="D24">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="E24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="F24">
+        <v>0.9984197460422124</v>
+      </c>
+      <c r="G24">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="H24">
+        <v>0.9973719629308196</v>
+      </c>
+      <c r="I24">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="J24">
+        <v>0.9973719629308196</v>
+      </c>
+      <c r="K24">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="L24">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M24">
+        <v>0.9991185201996189</v>
+      </c>
+      <c r="N24">
+        <v>0.9991185201996189</v>
+      </c>
+      <c r="O24">
+        <v>0.9988855954804835</v>
+      </c>
+      <c r="P24">
+        <v>0.9995065074538708</v>
+      </c>
+      <c r="Q24">
+        <v>0.9995065074538708</v>
+      </c>
+      <c r="R24">
+        <v>0.9997005010809967</v>
+      </c>
+      <c r="S24">
+        <v>0.9997005010809967</v>
+      </c>
+      <c r="T24">
+        <v>1.000008725422921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000211121594492</v>
+      </c>
+      <c r="D25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="E25">
+        <v>1.000290957719286</v>
+      </c>
+      <c r="F25">
+        <v>0.9995600236539687</v>
+      </c>
+      <c r="G25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="H25">
+        <v>0.9990817833146898</v>
+      </c>
+      <c r="I25">
+        <v>1.000129187227137</v>
+      </c>
+      <c r="J25">
+        <v>0.9990817833146898</v>
+      </c>
+      <c r="K25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="L25">
+        <v>1.000129187227137</v>
+      </c>
+      <c r="M25">
+        <v>0.9996054852709135</v>
+      </c>
+      <c r="N25">
+        <v>0.9996054852709135</v>
+      </c>
+      <c r="O25">
+        <v>0.9995903313985987</v>
+      </c>
+      <c r="P25">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="Q25">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="R25">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="S25">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="T25">
+        <v>0.99994721671853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.053363000455561</v>
+      </c>
+      <c r="D26">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="E26">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="F26">
+        <v>0.8816329661722334</v>
+      </c>
+      <c r="G26">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="H26">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="I26">
+        <v>1.056604045948</v>
+      </c>
+      <c r="J26">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="K26">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="L26">
+        <v>1.056604045948</v>
+      </c>
+      <c r="M26">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="N26">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="O26">
+        <v>0.9092339761438483</v>
+      </c>
+      <c r="P26">
+        <v>0.9638520810701738</v>
+      </c>
+      <c r="Q26">
+        <v>0.9638520810701737</v>
+      </c>
+      <c r="R26">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="S26">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="T26">
+        <v>0.9966023005257739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.01472075290998</v>
+      </c>
+      <c r="D27">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="E27">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="F27">
+        <v>0.9680202245104421</v>
+      </c>
+      <c r="G27">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="H27">
+        <v>0.9398945720535596</v>
+      </c>
+      <c r="I27">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="J27">
+        <v>0.9398945720535596</v>
+      </c>
+      <c r="K27">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="L27">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="M27">
+        <v>0.9766285126607316</v>
+      </c>
+      <c r="N27">
+        <v>0.9766285126607316</v>
+      </c>
+      <c r="O27">
+        <v>0.9737590832773018</v>
+      </c>
+      <c r="P27">
+        <v>0.9904261399107073</v>
+      </c>
+      <c r="Q27">
+        <v>0.9904261399107073</v>
+      </c>
+      <c r="R27">
+        <v>0.9973249535356951</v>
+      </c>
+      <c r="S27">
+        <v>0.9973249535356951</v>
+      </c>
+      <c r="T27">
+        <v>0.9981275296119249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.008031772326101</v>
+      </c>
+      <c r="D28">
+        <v>1.005357951003768</v>
+      </c>
+      <c r="E28">
+        <v>1.025071182760622</v>
+      </c>
+      <c r="F28">
+        <v>0.9820013205268365</v>
+      </c>
+      <c r="G28">
+        <v>1.005357951003768</v>
+      </c>
+      <c r="H28">
+        <v>0.9688632058136829</v>
+      </c>
+      <c r="I28">
+        <v>1.009132107156179</v>
+      </c>
+      <c r="J28">
+        <v>0.9688632058136829</v>
+      </c>
+      <c r="K28">
+        <v>1.005357951003768</v>
+      </c>
+      <c r="L28">
+        <v>1.009132107156179</v>
+      </c>
+      <c r="M28">
+        <v>0.9889976564849308</v>
+      </c>
+      <c r="N28">
+        <v>0.9889976564849308</v>
+      </c>
+      <c r="O28">
+        <v>0.9866655444988993</v>
+      </c>
+      <c r="P28">
+        <v>0.9944510879912097</v>
+      </c>
+      <c r="Q28">
+        <v>0.9944510879912096</v>
+      </c>
+      <c r="R28">
+        <v>0.9971778037443492</v>
+      </c>
+      <c r="S28">
+        <v>0.9971778037443492</v>
+      </c>
+      <c r="T28">
+        <v>0.9997429232645314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.006636811214281</v>
+      </c>
+      <c r="D29">
+        <v>1.00527712149616</v>
+      </c>
+      <c r="E29">
+        <v>1.019555848672383</v>
+      </c>
+      <c r="F29">
+        <v>0.9852318234295021</v>
+      </c>
+      <c r="G29">
+        <v>1.00527712149616</v>
+      </c>
+      <c r="H29">
+        <v>0.9739563355311728</v>
+      </c>
+      <c r="I29">
+        <v>1.007196353606088</v>
+      </c>
+      <c r="J29">
+        <v>0.9739563355311728</v>
+      </c>
+      <c r="K29">
+        <v>1.00527712149616</v>
+      </c>
+      <c r="L29">
+        <v>1.007196353606088</v>
+      </c>
+      <c r="M29">
+        <v>0.9905763445686302</v>
+      </c>
+      <c r="N29">
+        <v>0.9905763445686302</v>
+      </c>
+      <c r="O29">
+        <v>0.9887948375222542</v>
+      </c>
+      <c r="P29">
+        <v>0.9954766035444734</v>
+      </c>
+      <c r="Q29">
+        <v>0.9954766035444734</v>
+      </c>
+      <c r="R29">
+        <v>0.9979267330323951</v>
+      </c>
+      <c r="S29">
+        <v>0.9979267330323951</v>
+      </c>
+      <c r="T29">
+        <v>0.9996423823249311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003838680905052</v>
+      </c>
+      <c r="D30">
+        <v>1.005089331509321</v>
+      </c>
+      <c r="E30">
+        <v>1.008527769377927</v>
+      </c>
+      <c r="F30">
+        <v>0.99170868729448</v>
+      </c>
+      <c r="G30">
+        <v>1.005089331509321</v>
+      </c>
+      <c r="H30">
+        <v>0.9841820700511992</v>
+      </c>
+      <c r="I30">
+        <v>1.003324012761678</v>
+      </c>
+      <c r="J30">
+        <v>0.9841820700511992</v>
+      </c>
+      <c r="K30">
+        <v>1.005089331509321</v>
+      </c>
+      <c r="L30">
+        <v>1.003324012761678</v>
+      </c>
+      <c r="M30">
+        <v>0.9937530414064385</v>
+      </c>
+      <c r="N30">
+        <v>0.9937530414064385</v>
+      </c>
+      <c r="O30">
+        <v>0.9930715900357857</v>
+      </c>
+      <c r="P30">
+        <v>0.997531804774066</v>
+      </c>
+      <c r="Q30">
+        <v>0.997531804774066</v>
+      </c>
+      <c r="R30">
+        <v>0.9994211864578797</v>
+      </c>
+      <c r="S30">
+        <v>0.9994211864578797</v>
+      </c>
+      <c r="T30">
+        <v>0.9994450919832762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.003979190892766</v>
+      </c>
+      <c r="D31">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="E31">
+        <v>1.008266080650149</v>
+      </c>
+      <c r="F31">
+        <v>0.991456846111728</v>
+      </c>
+      <c r="G31">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="H31">
+        <v>0.9834475374337953</v>
+      </c>
+      <c r="I31">
+        <v>1.003272836131152</v>
+      </c>
+      <c r="J31">
+        <v>0.9834475374337953</v>
+      </c>
+      <c r="K31">
+        <v>1.005695616530204</v>
+      </c>
+      <c r="L31">
+        <v>1.003272836131152</v>
+      </c>
+      <c r="M31">
+        <v>0.9933601867824735</v>
+      </c>
+      <c r="N31">
+        <v>0.9933601867824735</v>
+      </c>
+      <c r="O31">
+        <v>0.992725739892225</v>
+      </c>
+      <c r="P31">
+        <v>0.9974719966983837</v>
+      </c>
+      <c r="Q31">
+        <v>0.9974719966983837</v>
+      </c>
+      <c r="R31">
+        <v>0.9995279016563388</v>
+      </c>
+      <c r="S31">
+        <v>0.9995279016563388</v>
+      </c>
+      <c r="T31">
+        <v>0.999353017958299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.009682175616438</v>
+      </c>
+      <c r="D32">
+        <v>1.00593295589041</v>
+      </c>
+      <c r="E32">
+        <v>1.030941526849315</v>
+      </c>
+      <c r="F32">
+        <v>0.9782381989041093</v>
+      </c>
+      <c r="G32">
+        <v>1.00593295589041</v>
+      </c>
+      <c r="H32">
+        <v>0.962659885616438</v>
+      </c>
+      <c r="I32">
+        <v>1.011225059452054</v>
+      </c>
+      <c r="J32">
+        <v>0.962659885616438</v>
+      </c>
+      <c r="K32">
+        <v>1.00593295589041</v>
+      </c>
+      <c r="L32">
+        <v>1.011225059452054</v>
+      </c>
+      <c r="M32">
+        <v>0.9869424725342462</v>
+      </c>
+      <c r="N32">
+        <v>0.9869424725342462</v>
+      </c>
+      <c r="O32">
+        <v>0.9840410479908672</v>
+      </c>
+      <c r="P32">
+        <v>0.9932726336529676</v>
+      </c>
+      <c r="Q32">
+        <v>0.9932726336529676</v>
+      </c>
+      <c r="R32">
+        <v>0.9964377142123283</v>
+      </c>
+      <c r="S32">
+        <v>0.9964377142123283</v>
+      </c>
+      <c r="T32">
+        <v>0.9997799670547942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="D33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="E33">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="F33">
+        <v>0.9843569942105262</v>
+      </c>
+      <c r="G33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="H33">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="I33">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="J33">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="K33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L33">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M33">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N33">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O33">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P33">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q33">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R33">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T33">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9647052863157896</v>
+      </c>
+      <c r="D34">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="E34">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="F34">
+        <v>1.078015924210526</v>
+      </c>
+      <c r="G34">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="H34">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="I34">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="J34">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="K34">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="L34">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="M34">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="N34">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="O34">
+        <v>1.06052093508772</v>
+      </c>
+      <c r="P34">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="Q34">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="R34">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="S34">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="T34">
+        <v>1.002626559122807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.015305004221318</v>
+      </c>
+      <c r="D35">
+        <v>1.022291578972888</v>
+      </c>
+      <c r="E35">
+        <v>1.031267948627668</v>
+      </c>
+      <c r="F35">
+        <v>0.9671880364564929</v>
+      </c>
+      <c r="G35">
+        <v>1.022291578972888</v>
+      </c>
+      <c r="H35">
+        <v>0.9361922835412954</v>
+      </c>
+      <c r="I35">
+        <v>1.012429893371357</v>
+      </c>
+      <c r="J35">
+        <v>0.9361922835412954</v>
+      </c>
+      <c r="K35">
+        <v>1.022291578972888</v>
+      </c>
+      <c r="L35">
+        <v>1.012429893371357</v>
+      </c>
+      <c r="M35">
+        <v>0.974311088456326</v>
+      </c>
+      <c r="N35">
+        <v>0.974311088456326</v>
+      </c>
+      <c r="O35">
+        <v>0.971936737789715</v>
+      </c>
+      <c r="P35">
+        <v>0.9903045852951798</v>
+      </c>
+      <c r="Q35">
+        <v>0.9903045852951798</v>
+      </c>
+      <c r="R35">
+        <v>0.9983013337146067</v>
+      </c>
+      <c r="S35">
+        <v>0.9983013337146067</v>
+      </c>
+      <c r="T35">
+        <v>0.9974457908651697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000756528966</v>
+      </c>
+      <c r="D36">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="E36">
+        <v>1.000020600305919</v>
+      </c>
+      <c r="F36">
+        <v>0.9999966649149519</v>
+      </c>
+      <c r="G36">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="H36">
+        <v>1.000002010629923</v>
+      </c>
+      <c r="I36">
+        <v>1.000006356648063</v>
+      </c>
+      <c r="J36">
+        <v>1.000002010629923</v>
+      </c>
+      <c r="K36">
+        <v>0.9999871542416638</v>
+      </c>
+      <c r="L36">
+        <v>1.000006356648063</v>
+      </c>
+      <c r="M36">
+        <v>1.000004183638993</v>
+      </c>
+      <c r="N36">
+        <v>1.000004183638993</v>
+      </c>
+      <c r="O36">
+        <v>1.000001677397646</v>
+      </c>
+      <c r="P36">
+        <v>0.9999985071732166</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999985071732166</v>
+      </c>
+      <c r="R36">
+        <v>0.9999956689403284</v>
+      </c>
+      <c r="S36">
+        <v>0.9999956689403284</v>
+      </c>
+      <c r="T36">
+        <v>1.000002257211581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000040130040477</v>
+      </c>
+      <c r="D37">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="E37">
+        <v>1.000045553534905</v>
+      </c>
+      <c r="F37">
+        <v>0.9999172473878445</v>
+      </c>
+      <c r="G37">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="H37">
+        <v>0.9998228182720168</v>
+      </c>
+      <c r="I37">
+        <v>1.000021620766043</v>
+      </c>
+      <c r="J37">
+        <v>0.9998228182720168</v>
+      </c>
+      <c r="K37">
+        <v>1.000085112625553</v>
+      </c>
+      <c r="L37">
+        <v>1.000021620766043</v>
+      </c>
+      <c r="M37">
+        <v>0.9999222195190299</v>
+      </c>
+      <c r="N37">
+        <v>0.9999222195190299</v>
+      </c>
+      <c r="O37">
+        <v>0.9999205621419681</v>
+      </c>
+      <c r="P37">
+        <v>0.9999765172212042</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999765172212042</v>
+      </c>
+      <c r="R37">
+        <v>1.000003666072291</v>
+      </c>
+      <c r="S37">
+        <v>1.000003666072291</v>
+      </c>
+      <c r="T37">
+        <v>0.9999887471044731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000121592533445</v>
+      </c>
+      <c r="D38">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="E38">
+        <v>1.000479541113198</v>
+      </c>
+      <c r="F38">
+        <v>0.9997185221281915</v>
+      </c>
+      <c r="G38">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="H38">
+        <v>0.9995557276923693</v>
+      </c>
+      <c r="I38">
+        <v>1.000168373074284</v>
+      </c>
+      <c r="J38">
+        <v>0.9995557276923693</v>
+      </c>
+      <c r="K38">
+        <v>1.000007925076776</v>
+      </c>
+      <c r="L38">
+        <v>1.000168373074284</v>
+      </c>
+      <c r="M38">
+        <v>0.9998620503833264</v>
+      </c>
+      <c r="N38">
+        <v>0.9998620503833264</v>
+      </c>
+      <c r="O38">
+        <v>0.9998142076316148</v>
+      </c>
+      <c r="P38">
+        <v>0.9999106752811429</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999106752811429</v>
+      </c>
+      <c r="R38">
+        <v>0.9999349877300512</v>
+      </c>
+      <c r="S38">
+        <v>0.9999349877300512</v>
+      </c>
+      <c r="T38">
+        <v>1.000008613603044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000271684032726</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9998234298276983</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00133690346774</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9993471827295068</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9998234298276983</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.999079287429289</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000456155262291</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.999079287429289</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9998234298276983</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000456155262291</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997677213457901</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9997677213457901</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.999627541807029</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997862908397596</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997862908397596</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9997955755867443</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9997955755867443</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000052440458209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9865277775181985</v>
+      </c>
+      <c r="D40">
+        <v>0.9857478288215094</v>
+      </c>
+      <c r="E40">
+        <v>0.9651396830699388</v>
+      </c>
+      <c r="F40">
+        <v>1.029542983728764</v>
+      </c>
+      <c r="G40">
+        <v>0.9857478288215094</v>
+      </c>
+      <c r="H40">
+        <v>1.054177753583557</v>
+      </c>
+      <c r="I40">
+        <v>0.9868487462228432</v>
+      </c>
+      <c r="J40">
+        <v>1.054177753583557</v>
+      </c>
+      <c r="K40">
+        <v>0.9857478288215094</v>
+      </c>
+      <c r="L40">
+        <v>0.9868487462228432</v>
+      </c>
+      <c r="M40">
+        <v>1.0205132499032</v>
+      </c>
+      <c r="N40">
+        <v>1.0205132499032</v>
+      </c>
+      <c r="O40">
+        <v>1.023523161178388</v>
+      </c>
+      <c r="P40">
+        <v>1.008924776209303</v>
+      </c>
+      <c r="Q40">
+        <v>1.008924776209303</v>
+      </c>
+      <c r="R40">
+        <v>1.003130539362355</v>
+      </c>
+      <c r="S40">
+        <v>1.003130539362355</v>
+      </c>
+      <c r="T40">
+        <v>1.001330795490802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9929346795428841</v>
+      </c>
+      <c r="D41">
+        <v>0.9935838869859677</v>
+      </c>
+      <c r="E41">
+        <v>0.9802721630872274</v>
+      </c>
+      <c r="F41">
+        <v>1.015623533858349</v>
+      </c>
+      <c r="G41">
+        <v>0.9935838869859677</v>
+      </c>
+      <c r="H41">
+        <v>1.028020831083009</v>
+      </c>
+      <c r="I41">
+        <v>0.9926675203251735</v>
+      </c>
+      <c r="J41">
+        <v>1.028020831083009</v>
+      </c>
+      <c r="K41">
+        <v>0.9935838869859677</v>
+      </c>
+      <c r="L41">
+        <v>0.9926675203251735</v>
+      </c>
+      <c r="M41">
+        <v>1.010344175704091</v>
+      </c>
+      <c r="N41">
+        <v>1.010344175704091</v>
+      </c>
+      <c r="O41">
+        <v>1.01210396175551</v>
+      </c>
+      <c r="P41">
+        <v>1.00475741279805</v>
+      </c>
+      <c r="Q41">
+        <v>1.00475741279805</v>
+      </c>
+      <c r="R41">
+        <v>1.001964031345029</v>
+      </c>
+      <c r="S41">
+        <v>1.001964031345029</v>
+      </c>
+      <c r="T41">
+        <v>1.000517102480435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9937072158255745</v>
+      </c>
+      <c r="D42">
+        <v>0.992001887301967</v>
+      </c>
+      <c r="E42">
+        <v>0.9855491631184204</v>
+      </c>
+      <c r="F42">
+        <v>1.013634427998704</v>
+      </c>
+      <c r="G42">
+        <v>0.992001887301967</v>
+      </c>
+      <c r="H42">
+        <v>1.025802724555836</v>
+      </c>
+      <c r="I42">
+        <v>0.9944090025241595</v>
+      </c>
+      <c r="J42">
+        <v>1.025802724555836</v>
+      </c>
+      <c r="K42">
+        <v>0.992001887301967</v>
+      </c>
+      <c r="L42">
+        <v>0.9944090025241595</v>
+      </c>
+      <c r="M42">
+        <v>1.010105863539998</v>
+      </c>
+      <c r="N42">
+        <v>1.010105863539998</v>
+      </c>
+      <c r="O42">
+        <v>1.0112820516929</v>
+      </c>
+      <c r="P42">
+        <v>1.004071204793987</v>
+      </c>
+      <c r="Q42">
+        <v>1.004071204793987</v>
+      </c>
+      <c r="R42">
+        <v>1.001053875420982</v>
+      </c>
+      <c r="S42">
+        <v>1.001053875420982</v>
+      </c>
+      <c r="T42">
+        <v>1.000850736887444</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000255690837766</v>
+        <v>1.000077671213492</v>
       </c>
       <c r="D3">
-        <v>0.9984155452208341</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="E3">
-        <v>1.000474127820834</v>
+        <v>1.000153005019969</v>
       </c>
       <c r="F3">
-        <v>1.000255690837766</v>
+        <v>0.999833994888925</v>
       </c>
       <c r="G3">
-        <v>1.001305940263834</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="H3">
-        <v>0.9990780007140622</v>
+        <v>0.9996746419439581</v>
       </c>
       <c r="I3">
-        <v>1.000410442215831</v>
+        <v>1.000061373648307</v>
       </c>
       <c r="J3">
-        <v>0.9984155452208341</v>
+        <v>0.9996746419439581</v>
       </c>
       <c r="K3">
-        <v>1.000255690837766</v>
+        <v>1.000117282003839</v>
       </c>
       <c r="L3">
-        <v>1.000474127820834</v>
+        <v>1.000061373648307</v>
       </c>
       <c r="M3">
-        <v>0.9994448365208342</v>
+        <v>0.9998680077961324</v>
       </c>
       <c r="N3">
-        <v>0.9994448365208342</v>
+        <v>0.9998680077961324</v>
       </c>
       <c r="O3">
-        <v>0.9993225579185768</v>
+        <v>0.9998566701603965</v>
       </c>
       <c r="P3">
-        <v>0.9997151212931447</v>
+        <v>0.9999510991987014</v>
       </c>
       <c r="Q3">
-        <v>0.9997151212931447</v>
+        <v>0.9999510991987014</v>
       </c>
       <c r="R3">
-        <v>0.9998502636793</v>
+        <v>0.9999926448999858</v>
       </c>
       <c r="S3">
-        <v>0.9998502636793</v>
+        <v>0.9999926448999858</v>
       </c>
       <c r="T3">
-        <v>0.9999899578455268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999863281197482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000500344128951</v>
+        <v>0.9865277775181985</v>
       </c>
       <c r="D4">
-        <v>0.9969370858835291</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="E4">
-        <v>1.000913165420139</v>
+        <v>0.9651396830699388</v>
       </c>
       <c r="F4">
-        <v>1.000500344128951</v>
+        <v>1.029542983728764</v>
       </c>
       <c r="G4">
-        <v>1.002513734075947</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="H4">
-        <v>0.9982198620082953</v>
+        <v>1.054177753583557</v>
       </c>
       <c r="I4">
-        <v>1.000792808220673</v>
+        <v>0.9868487462228432</v>
       </c>
       <c r="J4">
-        <v>0.9969370858835291</v>
+        <v>1.054177753583557</v>
       </c>
       <c r="K4">
-        <v>1.000500344128951</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="L4">
-        <v>1.000913165420139</v>
+        <v>0.9868487462228432</v>
       </c>
       <c r="M4">
-        <v>0.9989251256518339</v>
+        <v>1.0205132499032</v>
       </c>
       <c r="N4">
-        <v>0.9989251256518339</v>
+        <v>1.0205132499032</v>
       </c>
       <c r="O4">
-        <v>0.9986900377706543</v>
+        <v>1.023523161178388</v>
       </c>
       <c r="P4">
-        <v>0.9994501984775397</v>
+        <v>1.008924776209303</v>
       </c>
       <c r="Q4">
-        <v>0.9994501984775397</v>
+        <v>1.008924776209303</v>
       </c>
       <c r="R4">
-        <v>0.9997127348903926</v>
+        <v>1.003130539362355</v>
       </c>
       <c r="S4">
-        <v>0.9997127348903926</v>
+        <v>1.003130539362355</v>
       </c>
       <c r="T4">
-        <v>0.9999794999562557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.001330795490802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000974110631096</v>
+        <v>1.003969536095098</v>
       </c>
       <c r="D5">
-        <v>0.9941209107157233</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="E5">
-        <v>1.001745139869185</v>
+        <v>1.008620981865993</v>
       </c>
       <c r="F5">
-        <v>1.000974110631096</v>
+        <v>0.991443817074928</v>
       </c>
       <c r="G5">
-        <v>1.004800563702739</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="H5">
-        <v>0.9965880639546234</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="I5">
-        <v>1.001520352252464</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="J5">
-        <v>0.9941209107157233</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="K5">
-        <v>1.000974110631096</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="L5">
-        <v>1.001745139869185</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="M5">
-        <v>0.9979330252924543</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="N5">
-        <v>0.9979330252924543</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="O5">
-        <v>0.9974847048465106</v>
+        <v>0.9928036556075885</v>
       </c>
       <c r="P5">
-        <v>0.9989467204053349</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="Q5">
-        <v>0.9989467204053349</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="R5">
-        <v>0.9994535679617751</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="S5">
-        <v>0.9994535679617751</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="T5">
-        <v>0.9999581901876385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9994014766318436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001439177050224</v>
+        <v>1.015305004221318</v>
       </c>
       <c r="D6">
-        <v>0.9913708074342681</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="E6">
-        <v>1.002556244507236</v>
+        <v>1.031267948627668</v>
       </c>
       <c r="F6">
-        <v>1.001439177050224</v>
+        <v>0.9671880364564929</v>
       </c>
       <c r="G6">
-        <v>1.007029447585716</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="H6">
-        <v>0.9949954272931015</v>
+        <v>0.9361922835412954</v>
       </c>
       <c r="I6">
-        <v>1.002230575777028</v>
+        <v>1.012429893371357</v>
       </c>
       <c r="J6">
-        <v>0.9913708074342681</v>
+        <v>0.9361922835412954</v>
       </c>
       <c r="K6">
-        <v>1.001439177050224</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="L6">
-        <v>1.002556244507236</v>
+        <v>1.012429893371357</v>
       </c>
       <c r="M6">
-        <v>0.9969635259707523</v>
+        <v>0.974311088456326</v>
       </c>
       <c r="N6">
-        <v>0.9969635259707523</v>
+        <v>0.974311088456326</v>
       </c>
       <c r="O6">
-        <v>0.9963074930782021</v>
+        <v>0.971936737789715</v>
       </c>
       <c r="P6">
-        <v>0.9984554096639097</v>
+        <v>0.9903045852951798</v>
       </c>
       <c r="Q6">
-        <v>0.9984554096639097</v>
+        <v>0.9903045852951798</v>
       </c>
       <c r="R6">
-        <v>0.9992013515104883</v>
+        <v>0.9983013337146067</v>
       </c>
       <c r="S6">
-        <v>0.9992013515104883</v>
+        <v>0.9983013337146067</v>
       </c>
       <c r="T6">
-        <v>0.999936946607929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9974457908651697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000049076011316</v>
+        <v>1.000271112346884</v>
       </c>
       <c r="D7">
-        <v>0.9998579505532745</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="E7">
-        <v>1.000027978999871</v>
+        <v>1.00091986059413</v>
       </c>
       <c r="F7">
-        <v>1.000049076011316</v>
+        <v>0.9993858339052846</v>
       </c>
       <c r="G7">
-        <v>1.000070584067269</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="H7">
-        <v>0.999926758262102</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="I7">
-        <v>1.000034127842055</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="J7">
-        <v>0.9998579505532745</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="K7">
-        <v>1.000049076011316</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="L7">
-        <v>1.000027978999871</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="M7">
-        <v>0.9999429647765727</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="N7">
-        <v>0.9999429647765727</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="O7">
-        <v>0.9999375626050825</v>
+        <v>0.9995617262864753</v>
       </c>
       <c r="P7">
-        <v>0.9999783351881538</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="Q7">
-        <v>0.9999783351881538</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="R7">
-        <v>0.9999960203939444</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="S7">
-        <v>0.9999960203939444</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="T7">
-        <v>0.999994412622648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000000524908615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00011728200384</v>
+        <v>1.000040130040477</v>
       </c>
       <c r="D8">
-        <v>0.9996746419439581</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="E8">
-        <v>1.000061373648307</v>
+        <v>1.000045553534905</v>
       </c>
       <c r="F8">
-        <v>1.00011728200384</v>
+        <v>0.9999172473878445</v>
       </c>
       <c r="G8">
-        <v>1.000153005019969</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="H8">
-        <v>0.9998339948889249</v>
+        <v>0.9998228182720168</v>
       </c>
       <c r="I8">
-        <v>1.000077671213493</v>
+        <v>1.000021620766043</v>
       </c>
       <c r="J8">
-        <v>0.9996746419439581</v>
+        <v>0.9998228182720168</v>
       </c>
       <c r="K8">
-        <v>1.00011728200384</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="L8">
-        <v>1.000061373648307</v>
+        <v>1.000021620766043</v>
       </c>
       <c r="M8">
-        <v>0.9998680077961324</v>
+        <v>0.9999222195190299</v>
       </c>
       <c r="N8">
-        <v>0.9998680077961324</v>
+        <v>0.9999222195190299</v>
       </c>
       <c r="O8">
-        <v>0.9998566701603965</v>
+        <v>0.9999205621419681</v>
       </c>
       <c r="P8">
-        <v>0.9999510991987014</v>
+        <v>0.9999765172212042</v>
       </c>
       <c r="Q8">
-        <v>0.9999510991987014</v>
+        <v>0.9999765172212042</v>
       </c>
       <c r="R8">
-        <v>0.9999926448999858</v>
+        <v>1.000003666072291</v>
       </c>
       <c r="S8">
-        <v>0.9999926448999858</v>
+        <v>1.000003666072291</v>
       </c>
       <c r="T8">
-        <v>0.9999863281197484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999887471044731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000190082741071</v>
+        <v>1.000792808220672</v>
       </c>
       <c r="D9">
-        <v>0.9994499010156477</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="E9">
-        <v>1.000108327473006</v>
+        <v>1.002513734075948</v>
       </c>
       <c r="F9">
-        <v>1.000190082741071</v>
+        <v>0.9982198620082953</v>
       </c>
       <c r="G9">
-        <v>1.000273294282414</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="H9">
-        <v>0.9997163685173881</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="I9">
-        <v>1.000132161299741</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="J9">
-        <v>0.9994499010156477</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="K9">
-        <v>1.000190082741071</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="L9">
-        <v>1.000108327473006</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="M9">
-        <v>0.9997791142443269</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="N9">
-        <v>0.9997791142443269</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="O9">
-        <v>0.9997581990020139</v>
+        <v>0.9986900377706543</v>
       </c>
       <c r="P9">
-        <v>0.9999161037432417</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="Q9">
-        <v>0.9999161037432417</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="R9">
-        <v>0.9999845984926992</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="S9">
-        <v>0.9999845984926992</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="T9">
-        <v>0.9999783558882114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999794999562557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00038554826722</v>
+        <v>1.015541527552347</v>
       </c>
       <c r="D10">
-        <v>0.99889363030713</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="E10">
-        <v>1.000216064116478</v>
+        <v>1.031601329732678</v>
       </c>
       <c r="F10">
-        <v>1.00038554826722</v>
+        <v>0.9666944459924178</v>
       </c>
       <c r="G10">
-        <v>1.00054387882897</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="H10">
-        <v>0.9994307228710118</v>
+        <v>0.935165583712609</v>
       </c>
       <c r="I10">
-        <v>1.000265474564124</v>
+        <v>1.012576854315846</v>
       </c>
       <c r="J10">
-        <v>0.99889363030713</v>
+        <v>0.935165583712609</v>
       </c>
       <c r="K10">
-        <v>1.00038554826722</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="L10">
-        <v>1.000216064116478</v>
+        <v>1.012576854315846</v>
       </c>
       <c r="M10">
-        <v>0.9995548472118039</v>
+        <v>0.9738712190142276</v>
       </c>
       <c r="N10">
-        <v>0.9995548472118039</v>
+        <v>0.9738712190142276</v>
       </c>
       <c r="O10">
-        <v>0.9995134724315399</v>
+        <v>0.9714789613402909</v>
       </c>
       <c r="P10">
-        <v>0.9998317475636093</v>
+        <v>0.9901627258984175</v>
       </c>
       <c r="Q10">
-        <v>0.9998317475636093</v>
+        <v>0.9901627258984175</v>
       </c>
       <c r="R10">
-        <v>0.9999701977395119</v>
+        <v>0.9983084793405124</v>
       </c>
       <c r="S10">
-        <v>0.9999701977395119</v>
+        <v>0.9983084793405124</v>
       </c>
       <c r="T10">
-        <v>0.9999558864924888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9973875801621158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000689554950025</v>
+        <v>0.9808274994650529</v>
       </c>
       <c r="D11">
-        <v>0.9980081459426831</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="E11">
-        <v>1.000391527239763</v>
+        <v>0.9489499211250371</v>
       </c>
       <c r="F11">
-        <v>1.000689554950025</v>
+        <v>1.042172606378812</v>
       </c>
       <c r="G11">
-        <v>1.000987301191532</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="H11">
-        <v>0.9989734553463477</v>
+        <v>1.076710756393577</v>
       </c>
       <c r="I11">
-        <v>1.00047841288687</v>
+        <v>0.98085057159296</v>
       </c>
       <c r="J11">
-        <v>0.9980081459426831</v>
+        <v>1.076710756393577</v>
       </c>
       <c r="K11">
-        <v>1.000689554950025</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="L11">
-        <v>1.000391527239763</v>
+        <v>0.98085057159296</v>
       </c>
       <c r="M11">
-        <v>0.9991998365912231</v>
+        <v>1.028780663993268</v>
       </c>
       <c r="N11">
-        <v>0.9991998365912231</v>
+        <v>1.028780663993268</v>
       </c>
       <c r="O11">
-        <v>0.9991243761762646</v>
+        <v>1.03324464478845</v>
       </c>
       <c r="P11">
-        <v>0.9996964093774903</v>
+        <v>1.012777590301531</v>
       </c>
       <c r="Q11">
-        <v>0.9996964093774903</v>
+        <v>1.012777590301531</v>
       </c>
       <c r="R11">
-        <v>0.9999446957706239</v>
+        <v>1.004776053455663</v>
       </c>
       <c r="S11">
-        <v>0.9999446957706239</v>
+        <v>1.004776053455663</v>
       </c>
       <c r="T11">
-        <v>0.9999213995928701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.001713799645583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000282481962375</v>
+        <v>1.003921082526315</v>
       </c>
       <c r="D12">
-        <v>0.9973719629308196</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="E12">
-        <v>1.000865077468418</v>
+        <v>1.007466619410528</v>
       </c>
       <c r="F12">
-        <v>1.000282481962375</v>
+        <v>0.9916426774947367</v>
       </c>
       <c r="G12">
-        <v>1.002417857854792</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="H12">
-        <v>0.9984197460422124</v>
+        <v>0.9835052230736842</v>
       </c>
       <c r="I12">
-        <v>1.000695226278909</v>
+        <v>1.003020603357894</v>
       </c>
       <c r="J12">
-        <v>0.9973719629308196</v>
+        <v>0.9835052230736842</v>
       </c>
       <c r="K12">
-        <v>1.000282481962375</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.003020603357894</v>
       </c>
       <c r="M12">
-        <v>0.9991185201996189</v>
+        <v>0.9932629132157891</v>
       </c>
       <c r="N12">
-        <v>0.9991185201996189</v>
+        <v>0.9932629132157891</v>
       </c>
       <c r="O12">
-        <v>0.9988855954804835</v>
+        <v>0.992722834642105</v>
       </c>
       <c r="P12">
-        <v>0.9995065074538708</v>
+        <v>0.9975450286210528</v>
       </c>
       <c r="Q12">
-        <v>0.9995065074538708</v>
+        <v>0.9975450286210528</v>
       </c>
       <c r="R12">
-        <v>0.9997005010809967</v>
+        <v>0.9996860863236846</v>
       </c>
       <c r="S12">
-        <v>0.9997005010809967</v>
+        <v>0.9996860863236846</v>
       </c>
       <c r="T12">
-        <v>1.000008725422921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9992775775491231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000410226801606</v>
+        <v>0.9970244430307712</v>
       </c>
       <c r="D13">
-        <v>0.9990817833146898</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="E13">
-        <v>1.000129187227137</v>
+        <v>0.9924707938191888</v>
       </c>
       <c r="F13">
-        <v>1.000410226801606</v>
+        <v>1.006509723834387</v>
       </c>
       <c r="G13">
-        <v>1.000290957719287</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="H13">
-        <v>0.9995600236539686</v>
+        <v>1.012012188700562</v>
       </c>
       <c r="I13">
-        <v>1.000211121594492</v>
+        <v>0.9971466174079787</v>
       </c>
       <c r="J13">
-        <v>0.9990817833146898</v>
+        <v>1.012012188700562</v>
       </c>
       <c r="K13">
-        <v>1.000410226801606</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="L13">
-        <v>1.000129187227137</v>
+        <v>0.9971466174079787</v>
       </c>
       <c r="M13">
-        <v>0.9996054852709135</v>
+        <v>1.004579403054271</v>
       </c>
       <c r="N13">
-        <v>0.9996054852709135</v>
+        <v>1.004579403054271</v>
       </c>
       <c r="O13">
-        <v>0.9995903313985984</v>
+        <v>1.005222843314309</v>
       </c>
       <c r="P13">
-        <v>0.9998737324478112</v>
+        <v>1.00196212162305</v>
       </c>
       <c r="Q13">
-        <v>0.9998737324478112</v>
+        <v>1.00196212162305</v>
       </c>
       <c r="R13">
-        <v>1.00000785603626</v>
+        <v>1.00065348090744</v>
       </c>
       <c r="S13">
-        <v>1.00000785603626</v>
+        <v>1.00065348090744</v>
       </c>
       <c r="T13">
-        <v>0.99994721671853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000315220925583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.04548728095121</v>
+        <v>1.026871900000002</v>
       </c>
       <c r="D14">
-        <v>0.7894649163113109</v>
+        <v>1.0396018</v>
       </c>
       <c r="E14">
-        <v>1.056604045948</v>
+        <v>1.0542662</v>
       </c>
       <c r="F14">
-        <v>1.04548728095121</v>
+        <v>0.9424470399999992</v>
       </c>
       <c r="G14">
-        <v>1.153061593316328</v>
+        <v>1.0396018</v>
       </c>
       <c r="H14">
-        <v>0.8816329661722334</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="I14">
-        <v>1.053363000455561</v>
+        <v>1.0216333</v>
       </c>
       <c r="J14">
-        <v>0.7894649163113109</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="K14">
-        <v>1.04548728095121</v>
+        <v>1.0396018</v>
       </c>
       <c r="L14">
-        <v>1.056604045948</v>
+        <v>1.0216333</v>
       </c>
       <c r="M14">
-        <v>0.9230344811296556</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="N14">
-        <v>0.9230344811296556</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="O14">
-        <v>0.9092339761438483</v>
+        <v>0.9506259366666668</v>
       </c>
       <c r="P14">
-        <v>0.9638520810701738</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="Q14">
-        <v>0.9638520810701737</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="R14">
-        <v>0.9842608810404327</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="S14">
-        <v>0.9842608810404327</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="T14">
-        <v>0.9966023005257739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9954362850000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.018021394410658</v>
+        <v>1.0268719</v>
       </c>
       <c r="D15">
-        <v>0.9398945720535596</v>
+        <v>1.0396018</v>
       </c>
       <c r="E15">
-        <v>1.013362453267904</v>
+        <v>1.0542662</v>
       </c>
       <c r="F15">
-        <v>1.018021394410658</v>
+        <v>0.94244704</v>
       </c>
       <c r="G15">
-        <v>1.034745780519005</v>
+        <v>1.0396018</v>
       </c>
       <c r="H15">
-        <v>0.9680202245104421</v>
+        <v>0.88779747</v>
       </c>
       <c r="I15">
-        <v>1.01472075290998</v>
+        <v>1.0216333</v>
       </c>
       <c r="J15">
-        <v>0.9398945720535596</v>
+        <v>0.88779747</v>
       </c>
       <c r="K15">
-        <v>1.018021394410658</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>1.013362453267904</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>0.9766285126607316</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>0.9766285126607316</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>0.9737590832773018</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>0.9904261399107073</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>0.9904261399107073</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>0.9973249535356951</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>0.9973249535356951</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>0.9981275296119249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999871542416637</v>
+        <v>0.8956312400000001</v>
       </c>
       <c r="D16">
-        <v>1.000002010629923</v>
+        <v>0.88779747</v>
       </c>
       <c r="E16">
-        <v>1.000006356648063</v>
+        <v>0.73238625</v>
       </c>
       <c r="F16">
-        <v>0.9999871542416637</v>
+        <v>1.228648</v>
       </c>
       <c r="G16">
-        <v>1.000020600305919</v>
+        <v>0.88779747</v>
       </c>
       <c r="H16">
-        <v>0.9999966649149519</v>
+        <v>1.4203764</v>
       </c>
       <c r="I16">
-        <v>1.000000756528966</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="J16">
-        <v>1.000002010629923</v>
+        <v>1.4203764</v>
       </c>
       <c r="K16">
-        <v>0.9999871542416637</v>
+        <v>0.88779747</v>
       </c>
       <c r="L16">
-        <v>1.000006356648063</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M16">
-        <v>1.000004183638993</v>
+        <v>1.15961571</v>
       </c>
       <c r="N16">
-        <v>1.000004183638993</v>
+        <v>1.15961571</v>
       </c>
       <c r="O16">
-        <v>1.000001677397646</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P16">
-        <v>0.9999985071732166</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q16">
-        <v>0.9999985071732166</v>
+        <v>1.06900963</v>
       </c>
       <c r="R16">
-        <v>0.9999956689403284</v>
+        <v>1.02370659</v>
       </c>
       <c r="S16">
-        <v>0.9999956689403284</v>
+        <v>1.02370659</v>
       </c>
       <c r="T16">
-        <v>1.000002257211581</v>
+        <v>1.01061573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000085112625553</v>
+        <v>1.0014967</v>
       </c>
       <c r="D17">
-        <v>0.9998228182720169</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="E17">
-        <v>1.000021620766043</v>
+        <v>1.0063535</v>
       </c>
       <c r="F17">
-        <v>1.000085112625553</v>
+        <v>0.99649457</v>
       </c>
       <c r="G17">
-        <v>1.000045553534905</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="H17">
-        <v>0.9999172473878444</v>
+        <v>0.99465338</v>
       </c>
       <c r="I17">
-        <v>1.000040130040477</v>
+        <v>1.0022082</v>
       </c>
       <c r="J17">
-        <v>0.9998228182720169</v>
+        <v>0.99465338</v>
       </c>
       <c r="K17">
-        <v>1.000085112625553</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="L17">
-        <v>1.000021620766043</v>
+        <v>1.0022082</v>
       </c>
       <c r="M17">
-        <v>0.9999222195190298</v>
+        <v>0.99843079</v>
       </c>
       <c r="N17">
-        <v>0.9999222195190298</v>
+        <v>0.99843079</v>
       </c>
       <c r="O17">
-        <v>0.999920562141968</v>
+        <v>0.9977853833333333</v>
       </c>
       <c r="P17">
-        <v>0.9999765172212042</v>
+        <v>0.99887646</v>
       </c>
       <c r="Q17">
-        <v>0.9999765172212042</v>
+        <v>0.9988764600000001</v>
       </c>
       <c r="R17">
-        <v>1.000003666072291</v>
+        <v>0.9990992950000002</v>
       </c>
       <c r="S17">
-        <v>1.000003666072291</v>
+        <v>0.9990992950000002</v>
       </c>
       <c r="T17">
-        <v>0.9999887471044731</v>
+        <v>1.000162358333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000007925076776</v>
+        <v>1.009682175616438</v>
       </c>
       <c r="D18">
-        <v>0.9995557276923693</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="E18">
-        <v>1.000168373074284</v>
+        <v>1.030941526849315</v>
       </c>
       <c r="F18">
-        <v>1.000007925076776</v>
+        <v>0.9782381989041093</v>
       </c>
       <c r="G18">
-        <v>1.000479541113198</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="H18">
-        <v>0.9997185221281915</v>
+        <v>0.962659885616438</v>
       </c>
       <c r="I18">
-        <v>1.000121592533445</v>
+        <v>1.011225059452054</v>
       </c>
       <c r="J18">
-        <v>0.9995557276923693</v>
+        <v>0.962659885616438</v>
       </c>
       <c r="K18">
-        <v>1.000007925076776</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="L18">
-        <v>1.000168373074284</v>
+        <v>1.011225059452054</v>
       </c>
       <c r="M18">
-        <v>0.9998620503833267</v>
+        <v>0.9869424725342462</v>
       </c>
       <c r="N18">
-        <v>0.9998620503833267</v>
+        <v>0.9869424725342462</v>
       </c>
       <c r="O18">
-        <v>0.9998142076316149</v>
+        <v>0.9840410479908672</v>
       </c>
       <c r="P18">
-        <v>0.9999106752811432</v>
+        <v>0.9932726336529676</v>
       </c>
       <c r="Q18">
-        <v>0.9999106752811432</v>
+        <v>0.9932726336529676</v>
       </c>
       <c r="R18">
-        <v>0.9999349877300514</v>
+        <v>0.9964377142123283</v>
       </c>
       <c r="S18">
-        <v>0.9999349877300514</v>
+        <v>0.9964377142123283</v>
       </c>
       <c r="T18">
-        <v>1.000008613603044</v>
+        <v>0.9997799670547942</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998234298276983</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="D19">
-        <v>0.999079287429289</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="E19">
-        <v>1.000456155262291</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="F19">
-        <v>0.9998234298276983</v>
+        <v>0.9843569942105262</v>
       </c>
       <c r="G19">
-        <v>1.00133690346774</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="H19">
-        <v>0.9993471827295068</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="I19">
-        <v>1.000271684032726</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="J19">
-        <v>0.999079287429289</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="K19">
-        <v>0.9998234298276983</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L19">
-        <v>1.000456155262291</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M19">
-        <v>0.9997677213457901</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N19">
-        <v>0.9997677213457901</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O19">
-        <v>0.999627541807029</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P19">
-        <v>0.9997862908397596</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q19">
-        <v>0.9997862908397596</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R19">
-        <v>0.9997955755867443</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S19">
-        <v>0.9997955755867443</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T19">
-        <v>1.000052440458209</v>
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9647052863157896</v>
+      </c>
+      <c r="D20">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="E20">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="F20">
+        <v>1.078015924210526</v>
+      </c>
+      <c r="G20">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="H20">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="I20">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="J20">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="K20">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="L20">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="M20">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="N20">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="O20">
+        <v>1.06052093508772</v>
+      </c>
+      <c r="P20">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="Q20">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="R20">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="S20">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="T20">
+        <v>1.002626559122807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.053363000455561</v>
+      </c>
+      <c r="D21">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="E21">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="F21">
+        <v>0.8816329661722334</v>
+      </c>
+      <c r="G21">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="H21">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="I21">
+        <v>1.056604045948</v>
+      </c>
+      <c r="J21">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="K21">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="L21">
+        <v>1.056604045948</v>
+      </c>
+      <c r="M21">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="N21">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="O21">
+        <v>0.9092339761438483</v>
+      </c>
+      <c r="P21">
+        <v>0.9638520810701738</v>
+      </c>
+      <c r="Q21">
+        <v>0.9638520810701737</v>
+      </c>
+      <c r="R21">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="S21">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="T21">
+        <v>0.9966023005257739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.01472075290998</v>
+      </c>
+      <c r="D22">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="E22">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="F22">
+        <v>0.9680202245104421</v>
+      </c>
+      <c r="G22">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="H22">
+        <v>0.9398945720535596</v>
+      </c>
+      <c r="I22">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="J22">
+        <v>0.9398945720535596</v>
+      </c>
+      <c r="K22">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="L22">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="M22">
+        <v>0.9766285126607316</v>
+      </c>
+      <c r="N22">
+        <v>0.9766285126607316</v>
+      </c>
+      <c r="O22">
+        <v>0.9737590832773018</v>
+      </c>
+      <c r="P22">
+        <v>0.9904261399107073</v>
+      </c>
+      <c r="Q22">
+        <v>0.9904261399107073</v>
+      </c>
+      <c r="R22">
+        <v>0.9973249535356951</v>
+      </c>
+      <c r="S22">
+        <v>0.9973249535356951</v>
+      </c>
+      <c r="T22">
+        <v>0.9981275296119249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000695226278909</v>
+      </c>
+      <c r="D23">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="E23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="F23">
+        <v>0.9984197460422124</v>
+      </c>
+      <c r="G23">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="H23">
+        <v>0.9973719629308196</v>
+      </c>
+      <c r="I23">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="J23">
+        <v>0.9973719629308196</v>
+      </c>
+      <c r="K23">
+        <v>1.000282481962375</v>
+      </c>
+      <c r="L23">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M23">
+        <v>0.9991185201996189</v>
+      </c>
+      <c r="N23">
+        <v>0.9991185201996189</v>
+      </c>
+      <c r="O23">
+        <v>0.9988855954804835</v>
+      </c>
+      <c r="P23">
+        <v>0.9995065074538708</v>
+      </c>
+      <c r="Q23">
+        <v>0.9995065074538708</v>
+      </c>
+      <c r="R23">
+        <v>0.9997005010809967</v>
+      </c>
+      <c r="S23">
+        <v>0.9997005010809967</v>
+      </c>
+      <c r="T23">
+        <v>1.000008725422921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000211121594492</v>
+      </c>
+      <c r="D24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="E24">
+        <v>1.000290957719286</v>
+      </c>
+      <c r="F24">
+        <v>0.9995600236539687</v>
+      </c>
+      <c r="G24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="H24">
+        <v>0.9990817833146898</v>
+      </c>
+      <c r="I24">
+        <v>1.000129187227137</v>
+      </c>
+      <c r="J24">
+        <v>0.9990817833146898</v>
+      </c>
+      <c r="K24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="L24">
+        <v>1.000129187227137</v>
+      </c>
+      <c r="M24">
+        <v>0.9996054852709135</v>
+      </c>
+      <c r="N24">
+        <v>0.9996054852709135</v>
+      </c>
+      <c r="O24">
+        <v>0.9995903313985987</v>
+      </c>
+      <c r="P24">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="Q24">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="R24">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="S24">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="T24">
+        <v>0.99994721671853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.930793307981712</v>
+      </c>
+      <c r="D25">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="E25">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="F25">
+        <v>1.151880390641586</v>
+      </c>
+      <c r="G25">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="H25">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="I25">
+        <v>0.9320461621327374</v>
+      </c>
+      <c r="J25">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="K25">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="L25">
+        <v>0.9320461621327374</v>
+      </c>
+      <c r="M25">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="N25">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="O25">
+        <v>1.120626960754915</v>
+      </c>
+      <c r="P25">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="Q25">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="R25">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="S25">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="T25">
+        <v>1.006671893190858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9817079847949673</v>
+      </c>
+      <c r="D26">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="E26">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="F26">
+        <v>1.040404348898871</v>
+      </c>
+      <c r="G26">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="H26">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="I26">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="J26">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="K26">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="L26">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="M26">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="N26">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="O26">
+        <v>1.031416989981766</v>
+      </c>
+      <c r="P26">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="Q26">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="R26">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="S26">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="T26">
+        <v>1.001400998301508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001525640553184</v>
+      </c>
+      <c r="D27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="E27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="F27">
+        <v>0.9966079059605989</v>
+      </c>
+      <c r="G27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="H27">
+        <v>0.9940048727552424</v>
+      </c>
+      <c r="I27">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="J27">
+        <v>0.9940048727552424</v>
+      </c>
+      <c r="K27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="L27">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M27">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="N27">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="O27">
+        <v>0.9974192695020566</v>
+      </c>
+      <c r="P27">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="Q27">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="R27">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="S27">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="T27">
+        <v>0.9999139596079157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9947841744203284</v>
+      </c>
+      <c r="D28">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="E28">
+        <v>0.9889137414873471</v>
+      </c>
+      <c r="F28">
+        <v>1.011220800410433</v>
+      </c>
+      <c r="G28">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="H28">
+        <v>1.021628493121197</v>
+      </c>
+      <c r="I28">
+        <v>0.9956343664326415</v>
+      </c>
+      <c r="J28">
+        <v>1.021628493121197</v>
+      </c>
+      <c r="K28">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="L28">
+        <v>0.9956343664326415</v>
+      </c>
+      <c r="M28">
+        <v>1.008631429776919</v>
+      </c>
+      <c r="N28">
+        <v>1.008631429776919</v>
+      </c>
+      <c r="O28">
+        <v>1.009494553321424</v>
+      </c>
+      <c r="P28">
+        <v>1.00332702211111</v>
+      </c>
+      <c r="Q28">
+        <v>1.00332702211111</v>
+      </c>
+      <c r="R28">
+        <v>1.000674818278205</v>
+      </c>
+      <c r="S28">
+        <v>1.000674818278205</v>
+      </c>
+      <c r="T28">
+        <v>1.000816630441906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9906227394773905</v>
+      </c>
+      <c r="D29">
+        <v>0.9881151716862994</v>
+      </c>
+      <c r="E29">
+        <v>0.978419944084564</v>
+      </c>
+      <c r="F29">
+        <v>1.020321639606792</v>
+      </c>
+      <c r="G29">
+        <v>0.9881151716862994</v>
+      </c>
+      <c r="H29">
+        <v>1.038437775182253</v>
+      </c>
+      <c r="I29">
+        <v>0.9916546608202</v>
+      </c>
+      <c r="J29">
+        <v>1.038437775182253</v>
+      </c>
+      <c r="K29">
+        <v>0.9881151716862994</v>
+      </c>
+      <c r="L29">
+        <v>0.9916546608202</v>
+      </c>
+      <c r="M29">
+        <v>1.015046218001227</v>
+      </c>
+      <c r="N29">
+        <v>1.015046218001227</v>
+      </c>
+      <c r="O29">
+        <v>1.016804691869748</v>
+      </c>
+      <c r="P29">
+        <v>1.006069202562917</v>
+      </c>
+      <c r="Q29">
+        <v>1.006069202562917</v>
+      </c>
+      <c r="R29">
+        <v>1.001580694843763</v>
+      </c>
+      <c r="S29">
+        <v>1.001580694843763</v>
+      </c>
+      <c r="T29">
+        <v>1.00126198847625</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9865277775181985</v>
+        <v>1.003659363275751</v>
       </c>
       <c r="D4">
-        <v>0.9857478288215094</v>
+        <v>1.004865767154824</v>
       </c>
       <c r="E4">
-        <v>0.9651396830699388</v>
+        <v>1.008110051140483</v>
       </c>
       <c r="F4">
-        <v>1.029542983728764</v>
+        <v>0.9920977414729025</v>
       </c>
       <c r="G4">
-        <v>0.9857478288215094</v>
+        <v>1.004865767154824</v>
       </c>
       <c r="H4">
-        <v>1.054177753583557</v>
+        <v>0.9849157239465315</v>
       </c>
       <c r="I4">
-        <v>0.9868487462228432</v>
+        <v>1.003162904830807</v>
       </c>
       <c r="J4">
-        <v>1.054177753583557</v>
+        <v>0.9849157239465315</v>
       </c>
       <c r="K4">
-        <v>0.9857478288215094</v>
+        <v>1.004865767154824</v>
       </c>
       <c r="L4">
-        <v>0.9868487462228432</v>
+        <v>1.003162904830807</v>
       </c>
       <c r="M4">
-        <v>1.0205132499032</v>
+        <v>0.9940393143886694</v>
       </c>
       <c r="N4">
-        <v>1.0205132499032</v>
+        <v>0.9940393143886694</v>
       </c>
       <c r="O4">
-        <v>1.023523161178388</v>
+        <v>0.9933921234167471</v>
       </c>
       <c r="P4">
-        <v>1.008924776209303</v>
+        <v>0.9976481319773874</v>
       </c>
       <c r="Q4">
-        <v>1.008924776209303</v>
+        <v>0.9976481319773874</v>
       </c>
       <c r="R4">
-        <v>1.003130539362355</v>
+        <v>0.9994525407717465</v>
       </c>
       <c r="S4">
-        <v>1.003130539362355</v>
+        <v>0.9994525407717465</v>
       </c>
       <c r="T4">
-        <v>1.001330795490802</v>
+        <v>0.9994685919702165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003969536095098</v>
+        <v>0.9582828225498004</v>
       </c>
       <c r="D5">
-        <v>1.005407375007205</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="E5">
-        <v>1.008620981865993</v>
+        <v>0.8860450716547459</v>
       </c>
       <c r="F5">
-        <v>0.991443817074928</v>
+        <v>1.092021613673433</v>
       </c>
       <c r="G5">
-        <v>1.005407375007205</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="H5">
-        <v>0.9835893119092204</v>
+        <v>1.166134286361309</v>
       </c>
       <c r="I5">
-        <v>1.003377837838617</v>
+        <v>0.957466826900815</v>
       </c>
       <c r="J5">
-        <v>0.9835893119092204</v>
+        <v>1.166134286361309</v>
       </c>
       <c r="K5">
-        <v>1.005407375007205</v>
+        <v>0.9602657152454604</v>
       </c>
       <c r="L5">
-        <v>1.003377837838617</v>
+        <v>0.957466826900815</v>
       </c>
       <c r="M5">
-        <v>0.9934835748739188</v>
+        <v>1.061800556631062</v>
       </c>
       <c r="N5">
-        <v>0.9934835748739188</v>
+        <v>1.061800556631062</v>
       </c>
       <c r="O5">
-        <v>0.9928036556075885</v>
+        <v>1.071874242311852</v>
       </c>
       <c r="P5">
-        <v>0.9974581749183477</v>
+        <v>1.027955609502528</v>
       </c>
       <c r="Q5">
-        <v>0.9974581749183477</v>
+        <v>1.027955609502528</v>
       </c>
       <c r="R5">
-        <v>0.9994454749405621</v>
+        <v>1.011033135938261</v>
       </c>
       <c r="S5">
-        <v>0.9994454749405621</v>
+        <v>1.011033135938261</v>
       </c>
       <c r="T5">
-        <v>0.9994014766318436</v>
+        <v>1.003369389397594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015305004221318</v>
+        <v>0.9865277775181985</v>
       </c>
       <c r="D6">
-        <v>1.022291578972888</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="E6">
-        <v>1.031267948627668</v>
+        <v>0.9651396830699388</v>
       </c>
       <c r="F6">
-        <v>0.9671880364564929</v>
+        <v>1.029542983728764</v>
       </c>
       <c r="G6">
-        <v>1.022291578972888</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="H6">
-        <v>0.9361922835412954</v>
+        <v>1.054177753583557</v>
       </c>
       <c r="I6">
-        <v>1.012429893371357</v>
+        <v>0.9868487462228432</v>
       </c>
       <c r="J6">
-        <v>0.9361922835412954</v>
+        <v>1.054177753583557</v>
       </c>
       <c r="K6">
-        <v>1.022291578972888</v>
+        <v>0.9857478288215094</v>
       </c>
       <c r="L6">
-        <v>1.012429893371357</v>
+        <v>0.9868487462228432</v>
       </c>
       <c r="M6">
-        <v>0.974311088456326</v>
+        <v>1.0205132499032</v>
       </c>
       <c r="N6">
-        <v>0.974311088456326</v>
+        <v>1.0205132499032</v>
       </c>
       <c r="O6">
-        <v>0.971936737789715</v>
+        <v>1.023523161178388</v>
       </c>
       <c r="P6">
-        <v>0.9903045852951798</v>
+        <v>1.008924776209303</v>
       </c>
       <c r="Q6">
-        <v>0.9903045852951798</v>
+        <v>1.008924776209303</v>
       </c>
       <c r="R6">
-        <v>0.9983013337146067</v>
+        <v>1.003130539362355</v>
       </c>
       <c r="S6">
-        <v>0.9983013337146067</v>
+        <v>1.003130539362355</v>
       </c>
       <c r="T6">
-        <v>0.9974457908651697</v>
+        <v>1.001330795490802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000271112346884</v>
+        <v>1.003969536095098</v>
       </c>
       <c r="D7">
-        <v>1.000126997651249</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="E7">
-        <v>1.00091986059413</v>
+        <v>1.008620981865993</v>
       </c>
       <c r="F7">
-        <v>0.9993858339052846</v>
+        <v>0.991443817074928</v>
       </c>
       <c r="G7">
-        <v>1.000126997651249</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="H7">
-        <v>0.9989689246995594</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="I7">
-        <v>1.000330420254582</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="J7">
-        <v>0.9989689246995594</v>
+        <v>0.9835893119092204</v>
       </c>
       <c r="K7">
-        <v>1.000126997651249</v>
+        <v>1.005407375007205</v>
       </c>
       <c r="L7">
-        <v>1.000330420254582</v>
+        <v>1.003377837838617</v>
       </c>
       <c r="M7">
-        <v>0.9996496724770706</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="N7">
-        <v>0.9996496724770706</v>
+        <v>0.9934835748739188</v>
       </c>
       <c r="O7">
-        <v>0.9995617262864753</v>
+        <v>0.9928036556075885</v>
       </c>
       <c r="P7">
-        <v>0.9998087808684636</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="Q7">
-        <v>0.9998087808684636</v>
+        <v>0.9974581749183477</v>
       </c>
       <c r="R7">
-        <v>0.9998883350641601</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="S7">
-        <v>0.9998883350641601</v>
+        <v>0.9994454749405621</v>
       </c>
       <c r="T7">
-        <v>1.000000524908615</v>
+        <v>0.9994014766318436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000040130040477</v>
+        <v>1.015305004221318</v>
       </c>
       <c r="D8">
-        <v>1.000085112625553</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="E8">
-        <v>1.000045553534905</v>
+        <v>1.031267948627668</v>
       </c>
       <c r="F8">
-        <v>0.9999172473878445</v>
+        <v>0.9671880364564929</v>
       </c>
       <c r="G8">
-        <v>1.000085112625553</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="H8">
-        <v>0.9998228182720168</v>
+        <v>0.9361922835412954</v>
       </c>
       <c r="I8">
-        <v>1.000021620766043</v>
+        <v>1.012429893371357</v>
       </c>
       <c r="J8">
-        <v>0.9998228182720168</v>
+        <v>0.9361922835412954</v>
       </c>
       <c r="K8">
-        <v>1.000085112625553</v>
+        <v>1.022291578972888</v>
       </c>
       <c r="L8">
-        <v>1.000021620766043</v>
+        <v>1.012429893371357</v>
       </c>
       <c r="M8">
-        <v>0.9999222195190299</v>
+        <v>0.974311088456326</v>
       </c>
       <c r="N8">
-        <v>0.9999222195190299</v>
+        <v>0.974311088456326</v>
       </c>
       <c r="O8">
-        <v>0.9999205621419681</v>
+        <v>0.971936737789715</v>
       </c>
       <c r="P8">
-        <v>0.9999765172212042</v>
+        <v>0.9903045852951798</v>
       </c>
       <c r="Q8">
-        <v>0.9999765172212042</v>
+        <v>0.9903045852951798</v>
       </c>
       <c r="R8">
-        <v>1.000003666072291</v>
+        <v>0.9983013337146067</v>
       </c>
       <c r="S8">
-        <v>1.000003666072291</v>
+        <v>0.9983013337146067</v>
       </c>
       <c r="T8">
-        <v>0.9999887471044731</v>
+        <v>0.9974457908651697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000792808220672</v>
+        <v>1.000271112346884</v>
       </c>
       <c r="D9">
-        <v>1.000500344128951</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="E9">
-        <v>1.002513734075948</v>
+        <v>1.00091986059413</v>
       </c>
       <c r="F9">
-        <v>0.9982198620082953</v>
+        <v>0.9993858339052846</v>
       </c>
       <c r="G9">
-        <v>1.000500344128951</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="H9">
-        <v>0.9969370858835291</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="I9">
-        <v>1.000913165420139</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="J9">
-        <v>0.9969370858835291</v>
+        <v>0.9989689246995594</v>
       </c>
       <c r="K9">
-        <v>1.000500344128951</v>
+        <v>1.000126997651249</v>
       </c>
       <c r="L9">
-        <v>1.000913165420139</v>
+        <v>1.000330420254582</v>
       </c>
       <c r="M9">
-        <v>0.9989251256518339</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="N9">
-        <v>0.9989251256518339</v>
+        <v>0.9996496724770706</v>
       </c>
       <c r="O9">
-        <v>0.9986900377706543</v>
+        <v>0.9995617262864753</v>
       </c>
       <c r="P9">
-        <v>0.9994501984775397</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="Q9">
-        <v>0.9994501984775397</v>
+        <v>0.9998087808684636</v>
       </c>
       <c r="R9">
-        <v>0.9997127348903926</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="S9">
-        <v>0.9997127348903926</v>
+        <v>0.9998883350641601</v>
       </c>
       <c r="T9">
-        <v>0.9999794999562557</v>
+        <v>1.000000524908615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015541527552347</v>
+        <v>1.000040130040477</v>
       </c>
       <c r="D10">
-        <v>1.022745739666797</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="E10">
-        <v>1.031601329732678</v>
+        <v>1.000045553534905</v>
       </c>
       <c r="F10">
-        <v>0.9666944459924178</v>
+        <v>0.9999172473878445</v>
       </c>
       <c r="G10">
-        <v>1.022745739666797</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="H10">
-        <v>0.935165583712609</v>
+        <v>0.9998228182720168</v>
       </c>
       <c r="I10">
-        <v>1.012576854315846</v>
+        <v>1.000021620766043</v>
       </c>
       <c r="J10">
-        <v>0.935165583712609</v>
+        <v>0.9998228182720168</v>
       </c>
       <c r="K10">
-        <v>1.022745739666797</v>
+        <v>1.000085112625553</v>
       </c>
       <c r="L10">
-        <v>1.012576854315846</v>
+        <v>1.000021620766043</v>
       </c>
       <c r="M10">
-        <v>0.9738712190142276</v>
+        <v>0.9999222195190299</v>
       </c>
       <c r="N10">
-        <v>0.9738712190142276</v>
+        <v>0.9999222195190299</v>
       </c>
       <c r="O10">
-        <v>0.9714789613402909</v>
+        <v>0.9999205621419681</v>
       </c>
       <c r="P10">
-        <v>0.9901627258984175</v>
+        <v>0.9999765172212042</v>
       </c>
       <c r="Q10">
-        <v>0.9901627258984175</v>
+        <v>0.9999765172212042</v>
       </c>
       <c r="R10">
-        <v>0.9983084793405124</v>
+        <v>1.000003666072291</v>
       </c>
       <c r="S10">
-        <v>0.9983084793405124</v>
+        <v>1.000003666072291</v>
       </c>
       <c r="T10">
-        <v>0.9973875801621158</v>
+        <v>0.9999887471044731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9808274994650529</v>
+        <v>1.000792808220672</v>
       </c>
       <c r="D11">
-        <v>0.9807714429180573</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="E11">
-        <v>0.9489499211250371</v>
+        <v>1.002513734075948</v>
       </c>
       <c r="F11">
-        <v>1.042172606378812</v>
+        <v>0.9982198620082953</v>
       </c>
       <c r="G11">
-        <v>0.9807714429180573</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="H11">
-        <v>1.076710756393577</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="I11">
-        <v>0.98085057159296</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="J11">
-        <v>1.076710756393577</v>
+        <v>0.9969370858835291</v>
       </c>
       <c r="K11">
-        <v>0.9807714429180573</v>
+        <v>1.000500344128951</v>
       </c>
       <c r="L11">
-        <v>0.98085057159296</v>
+        <v>1.000913165420139</v>
       </c>
       <c r="M11">
-        <v>1.028780663993268</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="N11">
-        <v>1.028780663993268</v>
+        <v>0.9989251256518339</v>
       </c>
       <c r="O11">
-        <v>1.03324464478845</v>
+        <v>0.9986900377706543</v>
       </c>
       <c r="P11">
-        <v>1.012777590301531</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="Q11">
-        <v>1.012777590301531</v>
+        <v>0.9994501984775397</v>
       </c>
       <c r="R11">
-        <v>1.004776053455663</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="S11">
-        <v>1.004776053455663</v>
+        <v>0.9997127348903926</v>
       </c>
       <c r="T11">
-        <v>1.001713799645583</v>
+        <v>0.9999794999562557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.003921082526315</v>
+        <v>1.015541527552347</v>
       </c>
       <c r="D12">
-        <v>1.00610925943158</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="E12">
-        <v>1.007466619410528</v>
+        <v>1.031601329732678</v>
       </c>
       <c r="F12">
-        <v>0.9916426774947367</v>
+        <v>0.9666944459924178</v>
       </c>
       <c r="G12">
-        <v>1.00610925943158</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="H12">
-        <v>0.9835052230736842</v>
+        <v>0.935165583712609</v>
       </c>
       <c r="I12">
-        <v>1.003020603357894</v>
+        <v>1.012576854315846</v>
       </c>
       <c r="J12">
-        <v>0.9835052230736842</v>
+        <v>0.935165583712609</v>
       </c>
       <c r="K12">
-        <v>1.00610925943158</v>
+        <v>1.022745739666797</v>
       </c>
       <c r="L12">
-        <v>1.003020603357894</v>
+        <v>1.012576854315846</v>
       </c>
       <c r="M12">
-        <v>0.9932629132157891</v>
+        <v>0.9738712190142276</v>
       </c>
       <c r="N12">
-        <v>0.9932629132157891</v>
+        <v>0.9738712190142276</v>
       </c>
       <c r="O12">
-        <v>0.992722834642105</v>
+        <v>0.9714789613402909</v>
       </c>
       <c r="P12">
-        <v>0.9975450286210528</v>
+        <v>0.9901627258984175</v>
       </c>
       <c r="Q12">
-        <v>0.9975450286210528</v>
+        <v>0.9901627258984175</v>
       </c>
       <c r="R12">
-        <v>0.9996860863236846</v>
+        <v>0.9983084793405124</v>
       </c>
       <c r="S12">
-        <v>0.9996860863236846</v>
+        <v>0.9983084793405124</v>
       </c>
       <c r="T12">
-        <v>0.9992775775491231</v>
+        <v>0.9973875801621158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9970244430307712</v>
+        <v>0.9808274994650529</v>
       </c>
       <c r="D13">
-        <v>0.9967275587606097</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="E13">
-        <v>0.9924707938191888</v>
+        <v>0.9489499211250371</v>
       </c>
       <c r="F13">
-        <v>1.006509723834387</v>
+        <v>1.042172606378812</v>
       </c>
       <c r="G13">
-        <v>0.9967275587606097</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="H13">
-        <v>1.012012188700562</v>
+        <v>1.076710756393577</v>
       </c>
       <c r="I13">
-        <v>0.9971466174079787</v>
+        <v>0.98085057159296</v>
       </c>
       <c r="J13">
-        <v>1.012012188700562</v>
+        <v>1.076710756393577</v>
       </c>
       <c r="K13">
-        <v>0.9967275587606097</v>
+        <v>0.9807714429180573</v>
       </c>
       <c r="L13">
-        <v>0.9971466174079787</v>
+        <v>0.98085057159296</v>
       </c>
       <c r="M13">
-        <v>1.004579403054271</v>
+        <v>1.028780663993268</v>
       </c>
       <c r="N13">
-        <v>1.004579403054271</v>
+        <v>1.028780663993268</v>
       </c>
       <c r="O13">
-        <v>1.005222843314309</v>
+        <v>1.03324464478845</v>
       </c>
       <c r="P13">
-        <v>1.00196212162305</v>
+        <v>1.012777590301531</v>
       </c>
       <c r="Q13">
-        <v>1.00196212162305</v>
+        <v>1.012777590301531</v>
       </c>
       <c r="R13">
-        <v>1.00065348090744</v>
+        <v>1.004776053455663</v>
       </c>
       <c r="S13">
-        <v>1.00065348090744</v>
+        <v>1.004776053455663</v>
       </c>
       <c r="T13">
-        <v>1.000315220925583</v>
+        <v>1.001713799645583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026871900000002</v>
+        <v>1.003921082526315</v>
       </c>
       <c r="D14">
-        <v>1.0396018</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="E14">
-        <v>1.0542662</v>
+        <v>1.007466619410528</v>
       </c>
       <c r="F14">
-        <v>0.9424470399999992</v>
+        <v>0.9916426774947367</v>
       </c>
       <c r="G14">
-        <v>1.0396018</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="H14">
-        <v>0.887797470000001</v>
+        <v>0.9835052230736842</v>
       </c>
       <c r="I14">
-        <v>1.0216333</v>
+        <v>1.003020603357894</v>
       </c>
       <c r="J14">
-        <v>0.887797470000001</v>
+        <v>0.9835052230736842</v>
       </c>
       <c r="K14">
-        <v>1.0396018</v>
+        <v>1.00610925943158</v>
       </c>
       <c r="L14">
-        <v>1.0216333</v>
+        <v>1.003020603357894</v>
       </c>
       <c r="M14">
-        <v>0.9547153850000005</v>
+        <v>0.9932629132157891</v>
       </c>
       <c r="N14">
-        <v>0.9547153850000005</v>
+        <v>0.9932629132157891</v>
       </c>
       <c r="O14">
-        <v>0.9506259366666668</v>
+        <v>0.992722834642105</v>
       </c>
       <c r="P14">
-        <v>0.983010856666667</v>
+        <v>0.9975450286210528</v>
       </c>
       <c r="Q14">
-        <v>0.983010856666667</v>
+        <v>0.9975450286210528</v>
       </c>
       <c r="R14">
-        <v>0.9971585925000002</v>
+        <v>0.9996860863236846</v>
       </c>
       <c r="S14">
-        <v>0.9971585925000002</v>
+        <v>0.9996860863236846</v>
       </c>
       <c r="T14">
-        <v>0.9954362850000004</v>
+        <v>0.9992775775491231</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0268719</v>
+        <v>0.9970244430307712</v>
       </c>
       <c r="D15">
-        <v>1.0396018</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="E15">
-        <v>1.0542662</v>
+        <v>0.9924707938191888</v>
       </c>
       <c r="F15">
-        <v>0.94244704</v>
+        <v>1.006509723834387</v>
       </c>
       <c r="G15">
-        <v>1.0396018</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="H15">
-        <v>0.88779747</v>
+        <v>1.012012188700562</v>
       </c>
       <c r="I15">
-        <v>1.0216333</v>
+        <v>0.9971466174079787</v>
       </c>
       <c r="J15">
-        <v>0.88779747</v>
+        <v>1.012012188700562</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>0.9967275587606097</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>0.9971466174079787</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>1.004579403054271</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>1.004579403054271</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>1.005222843314309</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>1.00196212162305</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>1.00196212162305</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>1.00065348090744</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>1.00065348090744</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>1.000315220925583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8956312400000001</v>
+        <v>1.026871900000002</v>
       </c>
       <c r="D16">
-        <v>0.88779747</v>
+        <v>1.0396018</v>
       </c>
       <c r="E16">
-        <v>0.73238625</v>
+        <v>1.0542662</v>
       </c>
       <c r="F16">
-        <v>1.228648</v>
+        <v>0.9424470399999992</v>
       </c>
       <c r="G16">
-        <v>0.88779747</v>
+        <v>1.0396018</v>
       </c>
       <c r="H16">
-        <v>1.4203764</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="I16">
-        <v>0.8988550199999998</v>
+        <v>1.0216333</v>
       </c>
       <c r="J16">
-        <v>1.4203764</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="K16">
-        <v>0.88779747</v>
+        <v>1.0396018</v>
       </c>
       <c r="L16">
-        <v>0.8988550199999998</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>1.15961571</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="N16">
-        <v>1.15961571</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="O16">
-        <v>1.182626473333333</v>
+        <v>0.9506259366666668</v>
       </c>
       <c r="P16">
-        <v>1.06900963</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="Q16">
-        <v>1.06900963</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="R16">
-        <v>1.02370659</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="S16">
-        <v>1.02370659</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="T16">
-        <v>1.01061573</v>
+        <v>0.9954362850000004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0014967</v>
+        <v>1.0268719</v>
       </c>
       <c r="D17">
-        <v>0.9997678000000001</v>
+        <v>1.0396018</v>
       </c>
       <c r="E17">
-        <v>1.0063535</v>
+        <v>1.0542662</v>
       </c>
       <c r="F17">
-        <v>0.99649457</v>
+        <v>0.94244704</v>
       </c>
       <c r="G17">
-        <v>0.9997678000000001</v>
+        <v>1.0396018</v>
       </c>
       <c r="H17">
-        <v>0.99465338</v>
+        <v>0.88779747</v>
       </c>
       <c r="I17">
-        <v>1.0022082</v>
+        <v>1.0216333</v>
       </c>
       <c r="J17">
-        <v>0.99465338</v>
+        <v>0.88779747</v>
       </c>
       <c r="K17">
-        <v>0.9997678000000001</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>1.0022082</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.99843079</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.99843079</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.9977853833333333</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.99887646</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9988764600000001</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>0.9990992950000002</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>0.9990992950000002</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>1.000162358333333</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009682175616438</v>
+        <v>0.8956312400000001</v>
       </c>
       <c r="D18">
-        <v>1.00593295589041</v>
+        <v>0.88779747</v>
       </c>
       <c r="E18">
-        <v>1.030941526849315</v>
+        <v>0.73238625</v>
       </c>
       <c r="F18">
-        <v>0.9782381989041093</v>
+        <v>1.228648</v>
       </c>
       <c r="G18">
-        <v>1.00593295589041</v>
+        <v>0.88779747</v>
       </c>
       <c r="H18">
-        <v>0.962659885616438</v>
+        <v>1.4203764</v>
       </c>
       <c r="I18">
-        <v>1.011225059452054</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="J18">
-        <v>0.962659885616438</v>
+        <v>1.4203764</v>
       </c>
       <c r="K18">
-        <v>1.00593295589041</v>
+        <v>0.88779747</v>
       </c>
       <c r="L18">
-        <v>1.011225059452054</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M18">
-        <v>0.9869424725342462</v>
+        <v>1.15961571</v>
       </c>
       <c r="N18">
-        <v>0.9869424725342462</v>
+        <v>1.15961571</v>
       </c>
       <c r="O18">
-        <v>0.9840410479908672</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P18">
-        <v>0.9932726336529676</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q18">
-        <v>0.9932726336529676</v>
+        <v>1.06900963</v>
       </c>
       <c r="R18">
-        <v>0.9964377142123283</v>
+        <v>1.02370659</v>
       </c>
       <c r="S18">
-        <v>0.9964377142123283</v>
+        <v>1.02370659</v>
       </c>
       <c r="T18">
-        <v>0.9997799670547942</v>
+        <v>1.01061573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.006907015789474</v>
+        <v>1.0014967</v>
       </c>
       <c r="D19">
-        <v>1.003267138421053</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="E19">
-        <v>1.023391712631579</v>
+        <v>1.0063535</v>
       </c>
       <c r="F19">
-        <v>0.9843569942105262</v>
+        <v>0.99649457</v>
       </c>
       <c r="G19">
-        <v>1.003267138421053</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="H19">
-        <v>0.973720025263158</v>
+        <v>0.99465338</v>
       </c>
       <c r="I19">
-        <v>1.008404903684211</v>
+        <v>1.0022082</v>
       </c>
       <c r="J19">
-        <v>0.973720025263158</v>
+        <v>0.99465338</v>
       </c>
       <c r="K19">
-        <v>1.003267138421053</v>
+        <v>0.9997678000000001</v>
       </c>
       <c r="L19">
-        <v>1.008404903684211</v>
+        <v>1.0022082</v>
       </c>
       <c r="M19">
-        <v>0.9910624644736843</v>
+        <v>0.99843079</v>
       </c>
       <c r="N19">
-        <v>0.9910624644736843</v>
+        <v>0.99843079</v>
       </c>
       <c r="O19">
-        <v>0.9888273077192983</v>
+        <v>0.9977853833333333</v>
       </c>
       <c r="P19">
-        <v>0.995130689122807</v>
+        <v>0.99887646</v>
       </c>
       <c r="Q19">
-        <v>0.995130689122807</v>
+        <v>0.9988764600000001</v>
       </c>
       <c r="R19">
-        <v>0.9971648014473684</v>
+        <v>0.9990992950000002</v>
       </c>
       <c r="S19">
-        <v>0.9971648014473684</v>
+        <v>0.9990992950000002</v>
       </c>
       <c r="T19">
-        <v>1.000007965</v>
+        <v>1.000162358333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9647052863157896</v>
+        <v>1.009682175616438</v>
       </c>
       <c r="D20">
-        <v>0.9676944963157896</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="E20">
-        <v>0.9017967668421052</v>
+        <v>1.030941526849315</v>
       </c>
       <c r="F20">
-        <v>1.078015924210526</v>
+        <v>0.9782381989041093</v>
       </c>
       <c r="G20">
-        <v>0.9676944963157896</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="H20">
-        <v>1.140071708421053</v>
+        <v>0.962659885616438</v>
       </c>
       <c r="I20">
-        <v>0.9634751726315791</v>
+        <v>1.011225059452054</v>
       </c>
       <c r="J20">
-        <v>1.140071708421053</v>
+        <v>0.962659885616438</v>
       </c>
       <c r="K20">
-        <v>0.9676944963157896</v>
+        <v>1.00593295589041</v>
       </c>
       <c r="L20">
-        <v>0.9634751726315791</v>
+        <v>1.011225059452054</v>
       </c>
       <c r="M20">
-        <v>1.051773440526316</v>
+        <v>0.9869424725342462</v>
       </c>
       <c r="N20">
-        <v>1.051773440526316</v>
+        <v>0.9869424725342462</v>
       </c>
       <c r="O20">
-        <v>1.06052093508772</v>
+        <v>0.9840410479908672</v>
       </c>
       <c r="P20">
-        <v>1.023747125789474</v>
+        <v>0.9932726336529676</v>
       </c>
       <c r="Q20">
-        <v>1.023747125789474</v>
+        <v>0.9932726336529676</v>
       </c>
       <c r="R20">
-        <v>1.009733968421053</v>
+        <v>0.9964377142123283</v>
       </c>
       <c r="S20">
-        <v>1.009733968421053</v>
+        <v>0.9964377142123283</v>
       </c>
       <c r="T20">
-        <v>1.002626559122807</v>
+        <v>0.9997799670547942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.053363000455561</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="D21">
-        <v>1.04548728095121</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="E21">
-        <v>1.153061593316328</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="F21">
-        <v>0.8816329661722334</v>
+        <v>0.9843569942105262</v>
       </c>
       <c r="G21">
-        <v>1.04548728095121</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="H21">
-        <v>0.7894649163113109</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="I21">
-        <v>1.056604045948</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="J21">
-        <v>0.7894649163113109</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="K21">
-        <v>1.04548728095121</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L21">
-        <v>1.056604045948</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M21">
-        <v>0.9230344811296556</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N21">
-        <v>0.9230344811296556</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O21">
-        <v>0.9092339761438483</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P21">
-        <v>0.9638520810701738</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q21">
-        <v>0.9638520810701737</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R21">
-        <v>0.9842608810404327</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S21">
-        <v>0.9842608810404327</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T21">
-        <v>0.9966023005257739</v>
+        <v>1.000007965</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.01472075290998</v>
+        <v>0.9647052863157896</v>
       </c>
       <c r="D22">
-        <v>1.018021394410658</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="E22">
-        <v>1.034745780519005</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="F22">
-        <v>0.9680202245104421</v>
+        <v>1.078015924210526</v>
       </c>
       <c r="G22">
-        <v>1.018021394410658</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="H22">
-        <v>0.9398945720535596</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="I22">
-        <v>1.013362453267904</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="J22">
-        <v>0.9398945720535596</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="K22">
-        <v>1.018021394410658</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="L22">
-        <v>1.013362453267904</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="M22">
-        <v>0.9766285126607316</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="N22">
-        <v>0.9766285126607316</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="O22">
-        <v>0.9737590832773018</v>
+        <v>1.06052093508772</v>
       </c>
       <c r="P22">
-        <v>0.9904261399107073</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="Q22">
-        <v>0.9904261399107073</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="R22">
-        <v>0.9973249535356951</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="S22">
-        <v>0.9973249535356951</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="T22">
-        <v>0.9981275296119249</v>
+        <v>1.002626559122807</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000695226278909</v>
+        <v>1.053363000455561</v>
       </c>
       <c r="D23">
-        <v>1.000282481962375</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="E23">
-        <v>1.002417857854792</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="F23">
-        <v>0.9984197460422124</v>
+        <v>0.8816329661722334</v>
       </c>
       <c r="G23">
-        <v>1.000282481962375</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="H23">
-        <v>0.9973719629308196</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="I23">
-        <v>1.000865077468418</v>
+        <v>1.056604045948</v>
       </c>
       <c r="J23">
-        <v>0.9973719629308196</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="K23">
-        <v>1.000282481962375</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="L23">
-        <v>1.000865077468418</v>
+        <v>1.056604045948</v>
       </c>
       <c r="M23">
-        <v>0.9991185201996189</v>
+        <v>0.9230344811296556</v>
       </c>
       <c r="N23">
-        <v>0.9991185201996189</v>
+        <v>0.9230344811296556</v>
       </c>
       <c r="O23">
-        <v>0.9988855954804835</v>
+        <v>0.9092339761438483</v>
       </c>
       <c r="P23">
-        <v>0.9995065074538708</v>
+        <v>0.9638520810701738</v>
       </c>
       <c r="Q23">
-        <v>0.9995065074538708</v>
+        <v>0.9638520810701737</v>
       </c>
       <c r="R23">
-        <v>0.9997005010809967</v>
+        <v>0.9842608810404327</v>
       </c>
       <c r="S23">
-        <v>0.9997005010809967</v>
+        <v>0.9842608810404327</v>
       </c>
       <c r="T23">
-        <v>1.000008725422921</v>
+        <v>0.9966023005257739</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000211121594492</v>
+        <v>1.01472075290998</v>
       </c>
       <c r="D24">
-        <v>1.000410226801606</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="E24">
-        <v>1.000290957719286</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="F24">
-        <v>0.9995600236539687</v>
+        <v>0.9680202245104421</v>
       </c>
       <c r="G24">
-        <v>1.000410226801606</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="H24">
-        <v>0.9990817833146898</v>
+        <v>0.9398945720535596</v>
       </c>
       <c r="I24">
-        <v>1.000129187227137</v>
+        <v>1.013362453267904</v>
       </c>
       <c r="J24">
-        <v>0.9990817833146898</v>
+        <v>0.9398945720535596</v>
       </c>
       <c r="K24">
-        <v>1.000410226801606</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="L24">
-        <v>1.000129187227137</v>
+        <v>1.013362453267904</v>
       </c>
       <c r="M24">
-        <v>0.9996054852709135</v>
+        <v>0.9766285126607316</v>
       </c>
       <c r="N24">
-        <v>0.9996054852709135</v>
+        <v>0.9766285126607316</v>
       </c>
       <c r="O24">
-        <v>0.9995903313985987</v>
+        <v>0.9737590832773018</v>
       </c>
       <c r="P24">
-        <v>0.9998737324478112</v>
+        <v>0.9904261399107073</v>
       </c>
       <c r="Q24">
-        <v>0.9998737324478112</v>
+        <v>0.9904261399107073</v>
       </c>
       <c r="R24">
-        <v>1.00000785603626</v>
+        <v>0.9973249535356951</v>
       </c>
       <c r="S24">
-        <v>1.00000785603626</v>
+        <v>0.9973249535356951</v>
       </c>
       <c r="T24">
-        <v>0.99994721671853</v>
+        <v>0.9981275296119249</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.930793307981712</v>
+        <v>1.000695226278909</v>
       </c>
       <c r="D25">
-        <v>0.9277488733131457</v>
+        <v>1.000282481962375</v>
       </c>
       <c r="E25">
-        <v>0.8196082955855434</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="F25">
-        <v>1.151880390641586</v>
+        <v>0.9984197460422124</v>
       </c>
       <c r="G25">
-        <v>0.9277488733131457</v>
+        <v>1.000282481962375</v>
       </c>
       <c r="H25">
-        <v>1.277954329490422</v>
+        <v>0.9973719629308196</v>
       </c>
       <c r="I25">
-        <v>0.9320461621327374</v>
+        <v>1.000865077468418</v>
       </c>
       <c r="J25">
-        <v>1.277954329490422</v>
+        <v>0.9973719629308196</v>
       </c>
       <c r="K25">
-        <v>0.9277488733131457</v>
+        <v>1.000282481962375</v>
       </c>
       <c r="L25">
-        <v>0.9320461621327374</v>
+        <v>1.000865077468418</v>
       </c>
       <c r="M25">
-        <v>1.10500024581158</v>
+        <v>0.9991185201996189</v>
       </c>
       <c r="N25">
-        <v>1.10500024581158</v>
+        <v>0.9991185201996189</v>
       </c>
       <c r="O25">
-        <v>1.120626960754915</v>
+        <v>0.9988855954804835</v>
       </c>
       <c r="P25">
-        <v>1.045916454978769</v>
+        <v>0.9995065074538708</v>
       </c>
       <c r="Q25">
-        <v>1.045916454978769</v>
+        <v>0.9995065074538708</v>
       </c>
       <c r="R25">
-        <v>1.016374559562363</v>
+        <v>0.9997005010809967</v>
       </c>
       <c r="S25">
-        <v>1.016374559562363</v>
+        <v>0.9997005010809967</v>
       </c>
       <c r="T25">
-        <v>1.006671893190858</v>
+        <v>1.000008725422921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9817079847949673</v>
+        <v>1.000211121594492</v>
       </c>
       <c r="D26">
-        <v>0.9830245918534591</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="E26">
-        <v>0.9494224432153225</v>
+        <v>1.000290957719286</v>
       </c>
       <c r="F26">
-        <v>1.040404348898871</v>
+        <v>0.9995600236539687</v>
       </c>
       <c r="G26">
-        <v>0.9830245918534591</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="H26">
-        <v>1.072680463717056</v>
+        <v>0.9990817833146898</v>
       </c>
       <c r="I26">
-        <v>0.9811661573293712</v>
+        <v>1.000129187227137</v>
       </c>
       <c r="J26">
-        <v>1.072680463717056</v>
+        <v>0.9990817833146898</v>
       </c>
       <c r="K26">
-        <v>0.9830245918534591</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="L26">
-        <v>0.9811661573293712</v>
+        <v>1.000129187227137</v>
       </c>
       <c r="M26">
-        <v>1.026923310523214</v>
+        <v>0.9996054852709135</v>
       </c>
       <c r="N26">
-        <v>1.026923310523214</v>
+        <v>0.9996054852709135</v>
       </c>
       <c r="O26">
-        <v>1.031416989981766</v>
+        <v>0.9995903313985987</v>
       </c>
       <c r="P26">
-        <v>1.012290404299962</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="Q26">
-        <v>1.012290404299962</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="R26">
-        <v>1.004973951188336</v>
+        <v>1.00000785603626</v>
       </c>
       <c r="S26">
-        <v>1.004973951188336</v>
+        <v>1.00000785603626</v>
       </c>
       <c r="T26">
-        <v>1.001400998301508</v>
+        <v>0.99994721671853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001525640553184</v>
+        <v>0.930793307981712</v>
       </c>
       <c r="D27">
-        <v>1.001235552300847</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="E27">
-        <v>1.004464756287293</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="F27">
-        <v>0.9966079059605989</v>
+        <v>1.151880390641586</v>
       </c>
       <c r="G27">
-        <v>1.001235552300847</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="H27">
-        <v>0.9940048727552424</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="I27">
-        <v>1.001645029790329</v>
+        <v>0.9320461621327374</v>
       </c>
       <c r="J27">
-        <v>0.9940048727552424</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="K27">
-        <v>1.001235552300847</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="L27">
-        <v>1.001645029790329</v>
+        <v>0.9320461621327374</v>
       </c>
       <c r="M27">
-        <v>0.9978249512727855</v>
+        <v>1.10500024581158</v>
       </c>
       <c r="N27">
-        <v>0.9978249512727855</v>
+        <v>1.10500024581158</v>
       </c>
       <c r="O27">
-        <v>0.9974192695020566</v>
+        <v>1.120626960754915</v>
       </c>
       <c r="P27">
-        <v>0.9989618182821394</v>
+        <v>1.045916454978769</v>
       </c>
       <c r="Q27">
-        <v>0.9989618182821394</v>
+        <v>1.045916454978769</v>
       </c>
       <c r="R27">
-        <v>0.9995302517868163</v>
+        <v>1.016374559562363</v>
       </c>
       <c r="S27">
-        <v>0.9995302517868163</v>
+        <v>1.016374559562363</v>
       </c>
       <c r="T27">
-        <v>0.9999139596079157</v>
+        <v>1.006671893190858</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9947841744203284</v>
+        <v>0.9817079847949673</v>
       </c>
       <c r="D28">
-        <v>0.9927182067794909</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="E28">
-        <v>0.9889137414873471</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="F28">
-        <v>1.011220800410433</v>
+        <v>1.040404348898871</v>
       </c>
       <c r="G28">
-        <v>0.9927182067794909</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="H28">
-        <v>1.021628493121197</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="I28">
-        <v>0.9956343664326415</v>
+        <v>0.9811661573293712</v>
       </c>
       <c r="J28">
-        <v>1.021628493121197</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="K28">
-        <v>0.9927182067794909</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="L28">
-        <v>0.9956343664326415</v>
+        <v>0.9811661573293712</v>
       </c>
       <c r="M28">
-        <v>1.008631429776919</v>
+        <v>1.026923310523214</v>
       </c>
       <c r="N28">
-        <v>1.008631429776919</v>
+        <v>1.026923310523214</v>
       </c>
       <c r="O28">
-        <v>1.009494553321424</v>
+        <v>1.031416989981766</v>
       </c>
       <c r="P28">
-        <v>1.00332702211111</v>
+        <v>1.012290404299962</v>
       </c>
       <c r="Q28">
-        <v>1.00332702211111</v>
+        <v>1.012290404299962</v>
       </c>
       <c r="R28">
-        <v>1.000674818278205</v>
+        <v>1.004973951188336</v>
       </c>
       <c r="S28">
-        <v>1.000674818278205</v>
+        <v>1.004973951188336</v>
       </c>
       <c r="T28">
-        <v>1.000816630441906</v>
+        <v>1.001400998301508</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001525640553184</v>
+      </c>
+      <c r="D29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="E29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="F29">
+        <v>0.9966079059605989</v>
+      </c>
+      <c r="G29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="H29">
+        <v>0.9940048727552424</v>
+      </c>
+      <c r="I29">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="J29">
+        <v>0.9940048727552424</v>
+      </c>
+      <c r="K29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="L29">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M29">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="N29">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="O29">
+        <v>0.9974192695020566</v>
+      </c>
+      <c r="P29">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="Q29">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="R29">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="S29">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="T29">
+        <v>0.9999139596079157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9947841744203284</v>
+      </c>
+      <c r="D30">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="E30">
+        <v>0.9889137414873471</v>
+      </c>
+      <c r="F30">
+        <v>1.011220800410433</v>
+      </c>
+      <c r="G30">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="H30">
+        <v>1.021628493121197</v>
+      </c>
+      <c r="I30">
+        <v>0.9956343664326415</v>
+      </c>
+      <c r="J30">
+        <v>1.021628493121197</v>
+      </c>
+      <c r="K30">
+        <v>0.9927182067794909</v>
+      </c>
+      <c r="L30">
+        <v>0.9956343664326415</v>
+      </c>
+      <c r="M30">
+        <v>1.008631429776919</v>
+      </c>
+      <c r="N30">
+        <v>1.008631429776919</v>
+      </c>
+      <c r="O30">
+        <v>1.009494553321424</v>
+      </c>
+      <c r="P30">
+        <v>1.00332702211111</v>
+      </c>
+      <c r="Q30">
+        <v>1.00332702211111</v>
+      </c>
+      <c r="R30">
+        <v>1.000674818278205</v>
+      </c>
+      <c r="S30">
+        <v>1.000674818278205</v>
+      </c>
+      <c r="T30">
+        <v>1.000816630441906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9906227394773905</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9881151716862994</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.978419944084564</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.020321639606792</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9881151716862994</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.038437775182253</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9916546608202</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.038437775182253</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9881151716862994</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9916546608202</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.015046218001227</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.015046218001227</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.016804691869748</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.006069202562917</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.006069202562917</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001580694843763</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001580694843763</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.00126198847625</v>
       </c>
     </row>
